--- a/data/QuickDataComparisonKwak.xlsx
+++ b/data/QuickDataComparisonKwak.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvand\PycharmProjects\ThesisEP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AF7D5B-6342-4E80-B48F-DF7C457FB2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC379B-C1D4-442E-9B41-2EAC97149826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1331D3C5-5F4D-44FE-B969-C723D61ACB2E}"/>
+    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15840" xr2:uid="{1331D3C5-5F4D-44FE-B969-C723D61ACB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="NewData" sheetId="1" r:id="rId1"/>
     <sheet name="Kwak" sheetId="2" r:id="rId2"/>
-    <sheet name="OldBase" sheetId="3" r:id="rId3"/>
-    <sheet name="OldFixed" sheetId="4" r:id="rId4"/>
-    <sheet name="KwakCompare" sheetId="5" r:id="rId5"/>
-    <sheet name="BaseCompare" sheetId="6" r:id="rId6"/>
-    <sheet name="FixedCompare" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="OldBase (2)" sheetId="9" r:id="rId3"/>
+    <sheet name="NewBase" sheetId="3" r:id="rId4"/>
+    <sheet name="OldFixed" sheetId="4" r:id="rId5"/>
+    <sheet name="KwakCompare" sheetId="5" r:id="rId6"/>
+    <sheet name="BaseCompare" sheetId="6" r:id="rId7"/>
+    <sheet name="FixedCompare" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="192">
   <si>
     <t>C_p,f</t>
   </si>
@@ -1370,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BAB54F-E073-474B-80A6-01D0117EBAF8}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,9 +2069,7 @@
       <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="13">
-        <v>2.6550532069886754E-3</v>
-      </c>
+      <c r="D47" s="13"/>
       <c r="N47" s="1" t="s">
         <v>117</v>
       </c>
@@ -2085,9 +2084,7 @@
       <c r="C48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="13">
-        <v>3.0252773462319579E-3</v>
-      </c>
+      <c r="D48" s="13"/>
       <c r="G48" s="27" t="s">
         <v>128</v>
       </c>
@@ -2108,9 +2105,7 @@
       <c r="C49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="13">
-        <v>1.4073946498798977E-3</v>
-      </c>
+      <c r="D49" s="13"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
         <v>132</v>
@@ -2129,9 +2124,7 @@
       <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="13">
-        <v>1.5942812902127641E-3</v>
-      </c>
+      <c r="D50" s="13"/>
       <c r="G50" s="1" t="s">
         <v>136</v>
       </c>
@@ -4957,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8C5FE6-6219-4CCF-9CE0-A6C1964FD346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF031F98-AE27-4A07-8618-C63FCF6F5720}">
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7246,6 +7239,2295 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8C5FE6-6219-4CCF-9CE0-A6C1964FD346}">
+  <dimension ref="A1:P72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>198</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2024.7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.66</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>44.129925</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0.61</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.667</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.32</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>1803</v>
+      </c>
+      <c r="I10">
+        <v>1.9912000000000001</v>
+      </c>
+      <c r="J10">
+        <v>20.890587470059611</v>
+      </c>
+      <c r="K10" s="2">
+        <v>14.83573906776126</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.0554037011270463</v>
+      </c>
+      <c r="M10" s="2">
+        <v>152.699699885537</v>
+      </c>
+      <c r="N10" s="2">
+        <v>130.840899002399</v>
+      </c>
+      <c r="O10" s="2">
+        <v>283.54813576370287</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1.01</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>2080.0000037024638</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>1.08</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1126.0999999999999</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>804.2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>900</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>8220</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>2850</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>13.5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2850</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>0.85769451945648867</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>4430</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>14.835344725114799</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>0.2079259441106642</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>550</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <v>6.0552427449448141</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20">
+        <v>0.64976857534582555</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>5.3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>280.70519289905712</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21">
+        <v>14.89491722197431</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <v>14.686991277863649</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>250</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1803</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22">
+        <v>6.6444588928411914</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <v>5.9946903174953663</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>6.95</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1.9912000000000001</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23">
+        <v>153.31287757438989</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23">
+        <v>20.681681595359009</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <v>14.89491722197431</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>143.57260502060211</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25">
+        <v>6.6444588928411914</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25">
+        <v>296.88548259499203</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>153.31287757438989</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>21.991517229258669</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>143.57260502060211</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27">
+        <v>7.6349849942768557</v>
+      </c>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>0.1185835850085553</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <v>296.88548259499203</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28">
+        <v>7.6499999999999986</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28">
+        <v>9.3822485085324399</v>
+      </c>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>7521.9331970970279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>20.681681595359009</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29">
+        <v>10.6</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29">
+        <v>55.364797644061078</v>
+      </c>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>3355.451740884801</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>0.85769451945648867</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <v>28.37569419109003</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30">
+        <v>5.147954868658311</v>
+      </c>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>6.6796316464763592</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31">
+        <v>336.85016266647739</v>
+      </c>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>4.1724095260940084</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32">
+        <v>7491.8490861829723</v>
+      </c>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>43.409356805897247</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33">
+        <v>193343186.61090061</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33">
+        <v>3057.8975861971321</v>
+      </c>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <v>0.33441282280098622</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <v>14.835344725114799</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>17776252.3149647</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34">
+        <v>6.6529163361894792</v>
+      </c>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>7.5484150009954547</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35">
+        <v>6.055242744944815</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35">
+        <v>3.802409333744257</v>
+      </c>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>4.5062022881815293</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>283.54059888793643</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36">
+        <v>0.45783450907786077</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36">
+        <v>42.203623407190463</v>
+      </c>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>1.2169023223324571</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>1803</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37">
+        <v>14.835344725114799</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O37">
+        <v>0.32512420995168961</v>
+      </c>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>1.024646414817918</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>1.9912000000000001</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <v>6.5130772540226758</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O38">
+        <v>7.5102738530363284</v>
+      </c>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <v>14.835344725114799</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39">
+        <v>152.69969988553709</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39">
+        <v>4.1066020804437979</v>
+      </c>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40">
+        <v>6.5130772540226758</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40">
+        <v>140.73372762798661</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40">
+        <v>1.214849244681474</v>
+      </c>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41">
+        <v>152.69969988553709</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41">
+        <v>293.43342751352372</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41">
+        <v>0.99341642857921086</v>
+      </c>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>1.9194934120405689</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>140.73372762798661</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42">
+        <v>200088996.6238876</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43">
+        <v>293.43342751352372</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43">
+        <v>18396471.847711921</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44">
+        <v>0.45783450907786077</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45">
+        <v>20.890587470059611</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45">
+        <v>1.918534978019403</v>
+      </c>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <v>1.7077440246965301</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47">
+        <v>434915.0594276021</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>495388.66566060501</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49">
+        <v>274242.64622772281</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49">
+        <v>1.6556940476320181</v>
+      </c>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50">
+        <v>310606.61556930689</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50">
+        <v>22.11010081426722</v>
+      </c>
+      <c r="M50">
+        <v>77.529986015528692</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50">
+        <v>434969.45742374368</v>
+      </c>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51">
+        <v>150.10205994541991</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L51">
+        <v>21.991517229258669</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O51">
+        <v>495341.03656126582</v>
+      </c>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <v>56.332724122428758</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L52">
+        <v>0.1185835850085553</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52">
+        <v>273503.75962534669</v>
+      </c>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53">
+        <v>65.45310174855156</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>17.017233502809301</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53">
+        <v>308759.3990633667</v>
+      </c>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54">
+        <v>11214.792281418389</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>55.364797644061078</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O54">
+        <v>149.3447006086173</v>
+      </c>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>5.147954868658311</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O55">
+        <v>51.110256237637607</v>
+      </c>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56">
+        <v>271.88788581640023</v>
+      </c>
+      <c r="M56">
+        <v>264.09004062278109</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O56">
+        <v>63.635083776526223</v>
+      </c>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L57">
+        <v>150.10205994541991</v>
+      </c>
+      <c r="M57">
+        <v>149.3447006086173</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57">
+        <v>11270.42048509208</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L58">
+        <v>56.332724122428758</v>
+      </c>
+      <c r="M58">
+        <v>51.110256237637607</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59">
+        <v>65.45310174855156</v>
+      </c>
+      <c r="M59">
+        <v>63.635083776526223</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L60">
+        <v>43.409356805897247</v>
+      </c>
+      <c r="M60">
+        <v>42.203623407190463</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L61">
+        <v>10877.384937981829</v>
+      </c>
+      <c r="M61">
+        <v>10886.596835046579</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L62">
+        <v>10444.249205656301</v>
+      </c>
+      <c r="M62">
+        <v>10549.746672380101</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63">
+        <v>433.13573232552682</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>336.85016266647739</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L65">
+        <v>11214.792281418389</v>
+      </c>
+      <c r="M65">
+        <v>11270.42048509208</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A68" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="13"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O72" s="10"/>
+      <c r="P72" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22840D59-8C78-49EC-90F5-4825A12134B0}">
   <dimension ref="A1:S75"/>
   <sheetViews>
@@ -9817,12 +12099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E21DD-C523-4F36-86E4-642B6CA8A71F}">
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+      <selection activeCell="D47" sqref="D47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11375,9 +13657,7 @@
       <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="13">
-        <v>2.6550532069886754E-3</v>
-      </c>
+      <c r="D47" s="13"/>
       <c r="N47" s="1" t="s">
         <v>117</v>
       </c>
@@ -11396,9 +13676,7 @@
       <c r="C48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="13">
-        <v>3.0252773462319579E-3</v>
-      </c>
+      <c r="D48" s="13"/>
       <c r="G48" s="36" t="s">
         <v>128</v>
       </c>
@@ -11423,9 +13701,7 @@
       <c r="C49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="13">
-        <v>1.4073946498798977E-3</v>
-      </c>
+      <c r="D49" s="13"/>
       <c r="H49" s="7" t="s">
         <v>131</v>
       </c>
@@ -11460,9 +13736,7 @@
       <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="13">
-        <v>1.5942812902127641E-3</v>
-      </c>
+      <c r="D50" s="13"/>
       <c r="G50" s="1" t="s">
         <v>136</v>
       </c>
@@ -11810,1804 +14084,6 @@
       </c>
       <c r="M65">
         <f>ABS(Kwak!M65-NewData!M65)/Kwak!M65*100</f>
-        <v>100</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A68" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P68" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="N70" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P70" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="N71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" thickBot="1">
-      <c r="N72" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:M48"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9609D960-245D-4D93-8DF7-82FD795D5C37}">
-  <dimension ref="A1:P72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <f>ABS(OldBase!B1-NewData!B1)/OldBase!B1*100</f>
-        <v>100</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <f>ABS(OldBase!E1-NewData!E1)/OldBase!E1*100</f>
-        <v>100</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <f>ABS(OldBase!B2-NewData!B2)/OldBase!B2*100</f>
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <f>ABS(OldBase!E2-NewData!E2)/OldBase!E2*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <f>ABS(OldBase!B3-NewData!B3)/OldBase!B3*100</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <f>ABS(OldBase!E3-NewData!E3)/OldBase!E3*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <f>ABS(OldBase!B4-NewData!B4)/OldBase!B4*100</f>
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <f>ABS(OldBase!E4-NewData!E4)/OldBase!E4*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <f>ABS(OldBase!B5-NewData!B5)/OldBase!B5*100</f>
-        <v>100</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <f>ABS(OldBase!E5-NewData!E5)/OldBase!E5*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <f>ABS(OldBase!B6-NewData!B6)/OldBase!B6*100</f>
-        <v>100</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <f>ABS(OldBase!E6-NewData!E6)/OldBase!E6*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <f>ABS(OldBase!B7-NewData!B7)/OldBase!B7*100</f>
-        <v>100</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <f>ABS(OldBase!E7-NewData!E7)/OldBase!E7*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <f>ABS(OldBase!B8-NewData!B8)/OldBase!B8*100</f>
-        <v>100</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <f>ABS(OldBase!E8-NewData!E8)/OldBase!E8*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <f>ABS(OldBase!B9-NewData!B9)/OldBase!B9*100</f>
-        <v>100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <f>ABS(OldBase!E9-NewData!E9)/OldBase!E9*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <f>ABS(OldBase!B10-NewData!B10)/OldBase!B10*100</f>
-        <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <f>ABS(OldBase!E10-NewData!E10)/OldBase!E10*100</f>
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f>ABS(OldBase!G10-NewData!G10)/OldBase!G10*100</f>
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <f>ABS(OldBase!H10-NewData!H10)/OldBase!H10*100</f>
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <f>ABS(OldBase!I10-NewData!I10)/OldBase!I10*100</f>
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <f>ABS(OldBase!J10-NewData!J10)/OldBase!J10*100</f>
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <f>ABS(OldBase!K10-NewData!K10)/OldBase!K10*100</f>
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <f>ABS(OldBase!L10-NewData!L10)/OldBase!L10*100</f>
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <f>ABS(OldBase!M10-NewData!M10)/OldBase!M10*100</f>
-        <v>100</v>
-      </c>
-      <c r="N10">
-        <f>ABS(OldBase!N10-NewData!N10)/OldBase!N10*100</f>
-        <v>100</v>
-      </c>
-      <c r="O10">
-        <f>ABS(OldBase!O10-NewData!O10)/OldBase!O10*100</f>
-        <v>100</v>
-      </c>
-      <c r="P10">
-        <f>ABS(OldBase!P10-NewData!P10)/OldBase!P10*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <f>ABS(OldBase!B11-NewData!B11)/OldBase!B11*100</f>
-        <v>100</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <f>ABS(OldBase!E11-NewData!E11)/OldBase!E11*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <f>ABS(OldBase!B12-NewData!B12)/OldBase!B12*100</f>
-        <v>100</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <f>ABS(OldBase!E12-NewData!E12)/OldBase!E12*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <f>ABS(OldBase!B13-NewData!B13)/OldBase!B13*100</f>
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <f>ABS(OldBase!E13-NewData!E13)/OldBase!E13*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <f>ABS(OldBase!B14-NewData!B14)/OldBase!B14*100</f>
-        <v>100</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <f>ABS(OldBase!E14-NewData!E14)/OldBase!E14*100</f>
-        <v>100</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <f>ABS(OldBase!B15-NewData!B15)/OldBase!B15*100</f>
-        <v>100</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <f>ABS(OldBase!E15-NewData!E15)/OldBase!E15*100</f>
-        <v>100</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <f>ABS(OldBase!B16-NewData!B16)/OldBase!B16*100</f>
-        <v>100</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <f>ABS(OldBase!E16-NewData!E16)/OldBase!E16*100</f>
-        <v>100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <f>ABS(OldBase!B17-NewData!B17)/OldBase!B17*100</f>
-        <v>100</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <f>ABS(OldBase!E17-NewData!E17)/OldBase!E17*100</f>
-        <v>100</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18">
-        <f>ABS(OldBase!B18-NewData!B18)/OldBase!B18*100</f>
-        <v>100</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <f>ABS(OldBase!E18-NewData!E18)/OldBase!E18*100</f>
-        <v>100</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <f>ABS(OldBase!H18-NewData!H18)/OldBase!H18*100</f>
-        <v>100</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18">
-        <f>ABS(OldBase!J18-NewData!J18)/OldBase!J18*100</f>
-        <v>100</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18">
-        <f>ABS(OldBase!L18-NewData!L18)/OldBase!L18*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <f>ABS(OldBase!B19-NewData!B19)/OldBase!B19*100</f>
-        <v>100</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19">
-        <f>ABS(OldBase!E19-NewData!E19)/OldBase!E19*100</f>
-        <v>100</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19">
-        <f>ABS(OldBase!H19-NewData!H19)/OldBase!H19*100</f>
-        <v>100</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19">
-        <f>ABS(OldBase!J19-NewData!J19)/OldBase!J19*100</f>
-        <v>100</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19">
-        <f>ABS(OldBase!L19-NewData!L19)/OldBase!L19*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <f>ABS(OldBase!B20-NewData!B20)/OldBase!B20*100</f>
-        <v>100</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20">
-        <f>ABS(OldBase!E20-NewData!E20)/OldBase!E20*100</f>
-        <v>100</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20">
-        <f>ABS(OldBase!H20-NewData!H20)/OldBase!H20*100</f>
-        <v>100</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20">
-        <f>ABS(OldBase!J20-NewData!J20)/OldBase!J20*100</f>
-        <v>100</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20">
-        <f>ABS(OldBase!L20-NewData!L20)/OldBase!L20*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <f>ABS(OldBase!B21-NewData!B21)/OldBase!B21*100</f>
-        <v>100</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <f>ABS(OldBase!E21-NewData!E21)/OldBase!E21*100</f>
-        <v>100</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <f>ABS(OldBase!H21-NewData!H21)/OldBase!H21*100</f>
-        <v>100</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21">
-        <f>ABS(OldBase!J21-NewData!J21)/OldBase!J21*100</f>
-        <v>100</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21">
-        <f>ABS(OldBase!L21-NewData!L21)/OldBase!L21*100</f>
-        <v>100</v>
-      </c>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22">
-        <f>ABS(OldBase!B22-NewData!B22)/OldBase!B22*100</f>
-        <v>100</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22">
-        <f>ABS(OldBase!E22-NewData!E22)/OldBase!E22*100</f>
-        <v>100</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <f>ABS(OldBase!H22-NewData!H22)/OldBase!H22*100</f>
-        <v>100</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22">
-        <f>ABS(OldBase!J22-NewData!J22)/OldBase!J22*100</f>
-        <v>100</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22">
-        <f>ABS(OldBase!L22-NewData!L22)/OldBase!L22*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23">
-        <f>ABS(OldBase!B23-NewData!B23)/OldBase!B23*100</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23">
-        <f>ABS(OldBase!E23-NewData!E23)/OldBase!E23*100</f>
-        <v>100</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <f>ABS(OldBase!H23-NewData!H23)/OldBase!H23*100</f>
-        <v>100</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23">
-        <f>ABS(OldBase!J23-NewData!J23)/OldBase!J23*100</f>
-        <v>100</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23">
-        <f>ABS(OldBase!L23-NewData!L23)/OldBase!L23*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24">
-        <f>ABS(OldBase!H24-NewData!H24)/OldBase!H24*100</f>
-        <v>100</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24">
-        <f>ABS(OldBase!J24-NewData!J24)/OldBase!J24*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="G25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25">
-        <f>ABS(OldBase!H25-NewData!H25)/OldBase!H25*100</f>
-        <v>100</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25">
-        <f>ABS(OldBase!J25-NewData!J25)/OldBase!J25*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26">
-        <f>ABS(OldBase!H26-NewData!H26)/OldBase!H26*100</f>
-        <v>100</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27">
-        <f>ABS(OldBase!B27-NewData!B27)/OldBase!B27*100</f>
-        <v>100</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27">
-        <f>ABS(OldBase!H27-NewData!H27)/OldBase!H27*100</f>
-        <v>100</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27">
-        <f>ABS(OldBase!J27-NewData!J27)/OldBase!J27*100</f>
-        <v>100</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27">
-        <f>ABS(OldBase!O27-NewData!O27)/OldBase!O27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28">
-        <f>ABS(OldBase!B28-NewData!B28)/OldBase!B28*100</f>
-        <v>100</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28">
-        <f>ABS(OldBase!H28-NewData!H28)/OldBase!H28*100</f>
-        <v>100</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28">
-        <f>ABS(OldBase!J28-NewData!J28)/OldBase!J28*100</f>
-        <v>100</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28">
-        <f>ABS(OldBase!O28-NewData!O28)/OldBase!O28*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29">
-        <f>ABS(OldBase!B29-NewData!B29)/OldBase!B29*100</f>
-        <v>100</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29">
-        <f>ABS(OldBase!H29-NewData!H29)/OldBase!H29*100</f>
-        <v>100</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29">
-        <f>ABS(OldBase!J29-NewData!J29)/OldBase!J29*100</f>
-        <v>100</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29">
-        <f>ABS(OldBase!O29-NewData!O29)/OldBase!O29*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30">
-        <f>ABS(OldBase!B30-NewData!B30)/OldBase!B30*100</f>
-        <v>100</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30">
-        <f>ABS(OldBase!H30-NewData!H30)/OldBase!H30*100</f>
-        <v>100</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30">
-        <f>ABS(OldBase!J30-NewData!J30)/OldBase!J30*100</f>
-        <v>100</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O30">
-        <f>ABS(OldBase!O30-NewData!O30)/OldBase!O30*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31">
-        <f>ABS(OldBase!B31-NewData!B31)/OldBase!B31*100</f>
-        <v>100</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31">
-        <f>ABS(OldBase!O31-NewData!O31)/OldBase!O31*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32">
-        <f>ABS(OldBase!B32-NewData!B32)/OldBase!B32*100</f>
-        <v>100</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="N32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32">
-        <f>ABS(OldBase!O32-NewData!O32)/OldBase!O32*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33">
-        <f>ABS(OldBase!B33-NewData!B33)/OldBase!B33*100</f>
-        <v>100</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <f>ABS(OldBase!H33-NewData!H33)/OldBase!H33*100</f>
-        <v>100</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33">
-        <f>ABS(OldBase!J33-NewData!J33)/OldBase!J33*100</f>
-        <v>100</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33">
-        <f>ABS(OldBase!O33-NewData!O33)/OldBase!O33*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34">
-        <f>ABS(OldBase!B34-NewData!B34)/OldBase!B34*100</f>
-        <v>100</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34">
-        <f>ABS(OldBase!H34-NewData!H34)/OldBase!H34*100</f>
-        <v>100</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34">
-        <f>ABS(OldBase!J34-NewData!J34)/OldBase!J34*100</f>
-        <v>100</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34">
-        <f>ABS(OldBase!O34-NewData!O34)/OldBase!O34*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35">
-        <f>ABS(OldBase!B35-NewData!B35)/OldBase!B35*100</f>
-        <v>100</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35">
-        <f>ABS(OldBase!H35-NewData!H35)/OldBase!H35*100</f>
-        <v>100</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O35">
-        <f>ABS(OldBase!O35-NewData!O35)/OldBase!O35*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36">
-        <f>ABS(OldBase!B36-NewData!B36)/OldBase!B36*100</f>
-        <v>100</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <f>ABS(OldBase!H36-NewData!H36)/OldBase!H36*100</f>
-        <v>100</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36">
-        <f>ABS(OldBase!J36-NewData!J36)/OldBase!J36*100</f>
-        <v>100</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O36">
-        <f>ABS(OldBase!O36-NewData!O36)/OldBase!O36*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37">
-        <f>ABS(OldBase!B37-NewData!B37)/OldBase!B37*100</f>
-        <v>100</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <f>ABS(OldBase!H37-NewData!H37)/OldBase!H37*100</f>
-        <v>100</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37">
-        <f>ABS(OldBase!J37-NewData!J37)/OldBase!J37*100</f>
-        <v>100</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O37">
-        <f>ABS(OldBase!O37-NewData!O37)/OldBase!O37*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38">
-        <f>ABS(OldBase!B38-NewData!B38)/OldBase!B38*100</f>
-        <v>100</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <f>ABS(OldBase!H38-NewData!H38)/OldBase!H38*100</f>
-        <v>100</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38">
-        <f>ABS(OldBase!J38-NewData!J38)/OldBase!J38*100</f>
-        <v>100</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O38">
-        <f>ABS(OldBase!O38-NewData!O38)/OldBase!O38*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39">
-        <f>ABS(OldBase!H39-NewData!H39)/OldBase!H39*100</f>
-        <v>100</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39">
-        <f>ABS(OldBase!J39-NewData!J39)/OldBase!J39*100</f>
-        <v>100</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O39">
-        <f>ABS(OldBase!O39-NewData!O39)/OldBase!O39*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40">
-        <f>ABS(OldBase!H40-NewData!H40)/OldBase!H40*100</f>
-        <v>100</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40">
-        <f>ABS(OldBase!J40-NewData!J40)/OldBase!J40*100</f>
-        <v>100</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O40">
-        <f>ABS(OldBase!O40-NewData!O40)/OldBase!O40*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41">
-        <f>ABS(OldBase!H41-NewData!H41)/OldBase!H41*100</f>
-        <v>100</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41">
-        <f>ABS(OldBase!J41-NewData!J41)/OldBase!J41*100</f>
-        <v>100</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O41">
-        <f>ABS(OldBase!O41-NewData!O41)/OldBase!O41*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42">
-        <f>ABS(OldBase!B42-NewData!B42)/OldBase!B42*100</f>
-        <v>100</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42">
-        <f>ABS(OldBase!H42-NewData!H42)/OldBase!H42*100</f>
-        <v>100</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J42">
-        <f>ABS(OldBase!J42-NewData!J42)/OldBase!J42*100</f>
-        <v>100</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43">
-        <f>ABS(OldBase!H43-NewData!H43)/OldBase!H43*100</f>
-        <v>100</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43">
-        <f>ABS(OldBase!J43-NewData!J43)/OldBase!J43*100</f>
-        <v>100</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44">
-        <f>ABS(OldBase!H44-NewData!H44)/OldBase!H44*100</f>
-        <v>100</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44">
-        <f>ABS(OldBase!J44-NewData!J44)/OldBase!J44*100</f>
-        <v>100</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45">
-        <f>ABS(OldBase!H45-NewData!H45)/OldBase!H45*100</f>
-        <v>100</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45">
-        <f>ABS(OldBase!O45-NewData!O45)/OldBase!O45*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46">
-        <f>ABS(OldBase!B46-NewData!B46)/OldBase!B46*100</f>
-        <v>100</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47">
-        <f>ABS(OldBase!B47-NewData!B47)/OldBase!B47*100</f>
-        <v>100</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="13">
-        <v>2.6550532069886754E-3</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48">
-        <f>ABS(OldBase!B48-NewData!B48)/OldBase!B48*100</f>
-        <v>100</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="13">
-        <v>3.0252773462319579E-3</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49">
-        <f>ABS(OldBase!B49-NewData!B49)/OldBase!B49*100</f>
-        <v>100</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1.4073946498798977E-3</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O49">
-        <f>ABS(OldBase!O49-NewData!O49)/OldBase!O49*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50">
-        <f>ABS(OldBase!B50-NewData!B50)/OldBase!B50*100</f>
-        <v>100</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1.5942812902127641E-3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L50">
-        <f>ABS(OldBase!L50-NewData!L50)/OldBase!L50*100</f>
-        <v>100</v>
-      </c>
-      <c r="M50">
-        <f>ABS(OldBase!M50-NewData!M50)/OldBase!M50*100</f>
-        <v>100</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O50">
-        <f>ABS(OldBase!O50-NewData!O50)/OldBase!O50*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51">
-        <f>ABS(OldBase!B51-NewData!B51)/OldBase!B51*100</f>
-        <v>100</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L51">
-        <f>ABS(OldBase!L51-NewData!L51)/OldBase!L51*100</f>
-        <v>100</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O51">
-        <f>ABS(OldBase!O51-NewData!O51)/OldBase!O51*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52">
-        <f>ABS(OldBase!B52-NewData!B52)/OldBase!B52*100</f>
-        <v>100</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L52">
-        <f>ABS(OldBase!L52-NewData!L52)/OldBase!L52*100</f>
-        <v>100</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52">
-        <f>ABS(OldBase!O52-NewData!O52)/OldBase!O52*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53">
-        <f>ABS(OldBase!B53-NewData!B53)/OldBase!B53*100</f>
-        <v>100</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M53">
-        <f>ABS(OldBase!M53-NewData!M53)/OldBase!M53*100</f>
-        <v>100</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O53">
-        <f>ABS(OldBase!O53-NewData!O53)/OldBase!O53*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54">
-        <f>ABS(OldBase!B54-NewData!B54)/OldBase!B54*100</f>
-        <v>100</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M54">
-        <f>ABS(OldBase!M54-NewData!M54)/OldBase!M54*100</f>
-        <v>100</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O54">
-        <f>ABS(OldBase!O54-NewData!O54)/OldBase!O54*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="K55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M55">
-        <f>ABS(OldBase!M55-NewData!M55)/OldBase!M55*100</f>
-        <v>100</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O55">
-        <f>ABS(OldBase!O55-NewData!O55)/OldBase!O55*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L56">
-        <f>ABS(OldBase!L56-NewData!L56)/OldBase!L56*100</f>
-        <v>100</v>
-      </c>
-      <c r="M56">
-        <f>ABS(OldBase!M56-NewData!M56)/OldBase!M56*100</f>
-        <v>100</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O56">
-        <f>ABS(OldBase!O56-NewData!O56)/OldBase!O56*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L57">
-        <f>ABS(OldBase!L57-NewData!L57)/OldBase!L57*100</f>
-        <v>100</v>
-      </c>
-      <c r="M57">
-        <f>ABS(OldBase!M57-NewData!M57)/OldBase!M57*100</f>
-        <v>100</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O57">
-        <f>ABS(OldBase!O57-NewData!O57)/OldBase!O57*100</f>
-        <v>100</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L58">
-        <f>ABS(OldBase!L58-NewData!L58)/OldBase!L58*100</f>
-        <v>100</v>
-      </c>
-      <c r="M58">
-        <f>ABS(OldBase!M58-NewData!M58)/OldBase!M58*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L59">
-        <f>ABS(OldBase!L59-NewData!L59)/OldBase!L59*100</f>
-        <v>100</v>
-      </c>
-      <c r="M59">
-        <f>ABS(OldBase!M59-NewData!M59)/OldBase!M59*100</f>
-        <v>100</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L60">
-        <f>ABS(OldBase!L60-NewData!L60)/OldBase!L60*100</f>
-        <v>100</v>
-      </c>
-      <c r="M60">
-        <f>ABS(OldBase!M60-NewData!M60)/OldBase!M60*100</f>
-        <v>100</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L61">
-        <f>ABS(OldBase!L61-NewData!L61)/OldBase!L61*100</f>
-        <v>100</v>
-      </c>
-      <c r="M61">
-        <f>ABS(OldBase!M61-NewData!M61)/OldBase!M61*100</f>
-        <v>100</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L62">
-        <f>ABS(OldBase!L62-NewData!L62)/OldBase!L62*100</f>
-        <v>100</v>
-      </c>
-      <c r="M62">
-        <f>ABS(OldBase!M62-NewData!M62)/OldBase!M62*100</f>
-        <v>100</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L63">
-        <f>ABS(OldBase!L63-NewData!L63)/OldBase!L63*100</f>
-        <v>100</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M64">
-        <f>ABS(OldBase!M64-NewData!M64)/OldBase!M64*100</f>
-        <v>100</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1">
-      <c r="K65" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L65">
-        <f>ABS(OldBase!L65-NewData!L65)/OldBase!L65*100</f>
-        <v>100</v>
-      </c>
-      <c r="M65">
-        <f>ABS(OldBase!M65-NewData!M65)/OldBase!M65*100</f>
         <v>100</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -13694,11 +14170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E84DC-4DF4-4023-8F21-55FF6E4C6CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9609D960-245D-4D93-8DF7-82FD795D5C37}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13708,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>ABS(OldFixed!B1-NewData!B1)/OldFixed!B1*100</f>
+        <f>ABS(NewBase!B1-NewData!B1)/NewBase!B1*100</f>
         <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -13718,7 +14194,7 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>ABS(OldFixed!E1-NewData!E1)/OldFixed!E1*100</f>
+        <f>ABS(NewBase!E1-NewData!E1)/NewBase!E1*100</f>
         <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -13760,7 +14236,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>ABS(OldFixed!B2-NewData!B2)/OldFixed!B2*100</f>
+        <f>ABS(NewBase!B2-NewData!B2)/NewBase!B2*100</f>
         <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -13770,7 +14246,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <f>ABS(OldFixed!E2-NewData!E2)/OldFixed!E2*100</f>
+        <f>ABS(NewBase!E2-NewData!E2)/NewBase!E2*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13779,14 +14255,14 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f>ABS(OldFixed!B3-NewData!B3)/OldFixed!B3*100</f>
+        <f>ABS(NewBase!B3-NewData!B3)/NewBase!B3*100</f>
         <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <f>ABS(OldFixed!E3-NewData!E3)/OldFixed!E3*100</f>
+        <f>ABS(NewBase!E3-NewData!E3)/NewBase!E3*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13795,14 +14271,14 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <f>ABS(OldFixed!B4-NewData!B4)/OldFixed!B4*100</f>
+        <f>ABS(NewBase!B4-NewData!B4)/NewBase!B4*100</f>
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <f>ABS(OldFixed!E4-NewData!E4)/OldFixed!E4*100</f>
+        <f>ABS(NewBase!E4-NewData!E4)/NewBase!E4*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13811,14 +14287,14 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <f>ABS(OldFixed!B5-NewData!B5)/OldFixed!B5*100</f>
+        <f>ABS(NewBase!B5-NewData!B5)/NewBase!B5*100</f>
         <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <f>ABS(OldFixed!E5-NewData!E5)/OldFixed!E5*100</f>
+        <f>ABS(NewBase!E5-NewData!E5)/NewBase!E5*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13827,14 +14303,14 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <f>ABS(OldFixed!B6-NewData!B6)/OldFixed!B6*100</f>
+        <f>ABS(NewBase!B6-NewData!B6)/NewBase!B6*100</f>
         <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <f>ABS(OldFixed!E6-NewData!E6)/OldFixed!E6*100</f>
+        <f>ABS(NewBase!E6-NewData!E6)/NewBase!E6*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13843,14 +14319,14 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <f>ABS(OldFixed!B7-NewData!B7)/OldFixed!B7*100</f>
+        <f>ABS(NewBase!B7-NewData!B7)/NewBase!B7*100</f>
         <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <f>ABS(OldFixed!E7-NewData!E7)/OldFixed!E7*100</f>
+        <f>ABS(NewBase!E7-NewData!E7)/NewBase!E7*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13859,7 +14335,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <f>ABS(OldFixed!B8-NewData!B8)/OldFixed!B8*100</f>
+        <f>ABS(NewBase!B8-NewData!B8)/NewBase!B8*100</f>
         <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -13869,7 +14345,7 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <f>ABS(OldFixed!E8-NewData!E8)/OldFixed!E8*100</f>
+        <f>ABS(NewBase!E8-NewData!E8)/NewBase!E8*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13878,7 +14354,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <f>ABS(OldFixed!B9-NewData!B9)/OldFixed!B9*100</f>
+        <f>ABS(NewBase!B9-NewData!B9)/NewBase!B9*100</f>
         <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -13888,7 +14364,7 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <f>ABS(OldFixed!E9-NewData!E9)/OldFixed!E9*100</f>
+        <f>ABS(NewBase!E9-NewData!E9)/NewBase!E9*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13897,7 +14373,7 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <f>ABS(OldFixed!B10-NewData!B10)/OldFixed!B10*100</f>
+        <f>ABS(NewBase!B10-NewData!B10)/NewBase!B10*100</f>
         <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -13907,47 +14383,23 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <f>ABS(OldFixed!E10-NewData!E10)/OldFixed!E10*100</f>
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f>ABS(OldFixed!G10-NewData!G10)/OldFixed!G10*100</f>
+        <f>ABS(NewBase!E10-NewData!E10)/NewBase!E10*100</f>
         <v>100</v>
       </c>
       <c r="H10">
-        <f>ABS(OldFixed!H10-NewData!H10)/OldFixed!H10*100</f>
+        <f>ABS(NewBase!H10-NewData!H10)/NewBase!H10*100</f>
         <v>100</v>
       </c>
       <c r="I10">
-        <f>ABS(OldFixed!I10-NewData!I10)/OldFixed!I10*100</f>
+        <f>ABS(NewBase!I10-NewData!I10)/NewBase!I10*100</f>
         <v>100</v>
       </c>
       <c r="J10">
-        <f>ABS(OldFixed!J10-NewData!J10)/OldFixed!J10*100</f>
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <f>ABS(OldFixed!K10-NewData!K10)/OldFixed!K10*100</f>
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <f>ABS(OldFixed!L10-NewData!L10)/OldFixed!L10*100</f>
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <f>ABS(OldFixed!M10-NewData!M10)/OldFixed!M10*100</f>
-        <v>100</v>
-      </c>
-      <c r="N10">
-        <f>ABS(OldFixed!N10-NewData!N10)/OldFixed!N10*100</f>
-        <v>100</v>
-      </c>
-      <c r="O10">
-        <f>ABS(OldFixed!O10-NewData!O10)/OldFixed!O10*100</f>
+        <f>ABS(NewBase!J10-NewData!J10)/NewBase!J10*100</f>
         <v>100</v>
       </c>
       <c r="P10">
-        <f>ABS(OldFixed!P10-NewData!P10)/OldFixed!P10*100</f>
+        <f>ABS(NewBase!P10-NewData!P10)/NewBase!P10*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13956,7 +14408,7 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <f>ABS(OldFixed!B11-NewData!B11)/OldFixed!B11*100</f>
+        <f>ABS(NewBase!B11-NewData!B11)/NewBase!B11*100</f>
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -13966,7 +14418,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f>ABS(OldFixed!E11-NewData!E11)/OldFixed!E11*100</f>
+        <f>ABS(NewBase!E11-NewData!E11)/NewBase!E11*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13975,14 +14427,14 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <f>ABS(OldFixed!B12-NewData!B12)/OldFixed!B12*100</f>
+        <f>ABS(NewBase!B12-NewData!B12)/NewBase!B12*100</f>
         <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12">
-        <f>ABS(OldFixed!E12-NewData!E12)/OldFixed!E12*100</f>
+        <f>ABS(NewBase!E12-NewData!E12)/NewBase!E12*100</f>
         <v>100</v>
       </c>
     </row>
@@ -13991,7 +14443,7 @@
         <v>37</v>
       </c>
       <c r="B13">
-        <f>ABS(OldFixed!B13-NewData!B13)/OldFixed!B13*100</f>
+        <f>ABS(NewBase!B13-NewData!B13)/NewBase!B13*100</f>
         <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -14001,7 +14453,7 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <f>ABS(OldFixed!E13-NewData!E13)/OldFixed!E13*100</f>
+        <f>ABS(NewBase!E13-NewData!E13)/NewBase!E13*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14010,7 +14462,7 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <f>ABS(OldFixed!B14-NewData!B14)/OldFixed!B14*100</f>
+        <f>ABS(NewBase!B14-NewData!B14)/NewBase!B14*100</f>
         <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -14020,7 +14472,7 @@
         <v>40</v>
       </c>
       <c r="E14">
-        <f>ABS(OldFixed!E14-NewData!E14)/OldFixed!E14*100</f>
+        <f>ABS(NewBase!E14-NewData!E14)/NewBase!E14*100</f>
         <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -14032,7 +14484,7 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <f>ABS(OldFixed!B15-NewData!B15)/OldFixed!B15*100</f>
+        <f>ABS(NewBase!B15-NewData!B15)/NewBase!B15*100</f>
         <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -14042,7 +14494,7 @@
         <v>44</v>
       </c>
       <c r="E15">
-        <f>ABS(OldFixed!E15-NewData!E15)/OldFixed!E15*100</f>
+        <f>ABS(NewBase!E15-NewData!E15)/NewBase!E15*100</f>
         <v>100</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -14054,7 +14506,7 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <f>ABS(OldFixed!B16-NewData!B16)/OldFixed!B16*100</f>
+        <f>ABS(NewBase!B16-NewData!B16)/NewBase!B16*100</f>
         <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -14064,7 +14516,7 @@
         <v>46</v>
       </c>
       <c r="E16">
-        <f>ABS(OldFixed!E16-NewData!E16)/OldFixed!E16*100</f>
+        <f>ABS(NewBase!E16-NewData!E16)/NewBase!E16*100</f>
         <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -14076,7 +14528,7 @@
         <v>47</v>
       </c>
       <c r="B17">
-        <f>ABS(OldFixed!B17-NewData!B17)/OldFixed!B17*100</f>
+        <f>ABS(NewBase!B17-NewData!B17)/NewBase!B17*100</f>
         <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -14086,7 +14538,7 @@
         <v>49</v>
       </c>
       <c r="E17">
-        <f>ABS(OldFixed!E17-NewData!E17)/OldFixed!E17*100</f>
+        <f>ABS(NewBase!E17-NewData!E17)/NewBase!E17*100</f>
         <v>100</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -14106,7 +14558,7 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <f>ABS(OldFixed!B18-NewData!B18)/OldFixed!B18*100</f>
+        <f>ABS(NewBase!B18-NewData!B18)/NewBase!B18*100</f>
         <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -14116,7 +14568,7 @@
         <v>53</v>
       </c>
       <c r="E18">
-        <f>ABS(OldFixed!E18-NewData!E18)/OldFixed!E18*100</f>
+        <f>ABS(NewBase!E18-NewData!E18)/NewBase!E18*100</f>
         <v>100</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -14126,21 +14578,21 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <f>ABS(OldFixed!H18-NewData!H18)/OldFixed!H18*100</f>
+        <f>ABS(NewBase!H18-NewData!H18)/NewBase!H18*100</f>
         <v>100</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J18">
-        <f>ABS(OldFixed!J18-NewData!J18)/OldFixed!J18*100</f>
-        <v>100</v>
+      <c r="J18" t="e">
+        <f>ABS(NewBase!J18-NewData!J18)/NewBase!J18*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="L18">
-        <f>ABS(OldFixed!L18-NewData!L18)/OldFixed!L18*100</f>
+        <f>ABS(NewBase!L18-NewData!L18)/NewBase!L18*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14149,7 +14601,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <f>ABS(OldFixed!B19-NewData!B19)/OldFixed!B19*100</f>
+        <f>ABS(NewBase!B19-NewData!B19)/NewBase!B19*100</f>
         <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -14159,7 +14611,7 @@
         <v>56</v>
       </c>
       <c r="E19">
-        <f>ABS(OldFixed!E19-NewData!E19)/OldFixed!E19*100</f>
+        <f>ABS(NewBase!E19-NewData!E19)/NewBase!E19*100</f>
         <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -14169,21 +14621,21 @@
         <v>57</v>
       </c>
       <c r="H19">
-        <f>ABS(OldFixed!H19-NewData!H19)/OldFixed!H19*100</f>
+        <f>ABS(NewBase!H19-NewData!H19)/NewBase!H19*100</f>
         <v>100</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J19">
-        <f>ABS(OldFixed!J19-NewData!J19)/OldFixed!J19*100</f>
-        <v>100</v>
+      <c r="J19" t="e">
+        <f>ABS(NewBase!J19-NewData!J19)/NewBase!J19*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="L19">
-        <f>ABS(OldFixed!L19-NewData!L19)/OldFixed!L19*100</f>
+        <f>ABS(NewBase!L19-NewData!L19)/NewBase!L19*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14192,7 +14644,7 @@
         <v>59</v>
       </c>
       <c r="B20">
-        <f>ABS(OldFixed!B20-NewData!B20)/OldFixed!B20*100</f>
+        <f>ABS(NewBase!B20-NewData!B20)/NewBase!B20*100</f>
         <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -14202,7 +14654,7 @@
         <v>60</v>
       </c>
       <c r="E20">
-        <f>ABS(OldFixed!E20-NewData!E20)/OldFixed!E20*100</f>
+        <f>ABS(NewBase!E20-NewData!E20)/NewBase!E20*100</f>
         <v>100</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -14212,21 +14664,21 @@
         <v>61</v>
       </c>
       <c r="H20">
-        <f>ABS(OldFixed!H20-NewData!H20)/OldFixed!H20*100</f>
+        <f>ABS(NewBase!H20-NewData!H20)/NewBase!H20*100</f>
         <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J20">
-        <f>ABS(OldFixed!J20-NewData!J20)/OldFixed!J20*100</f>
-        <v>100</v>
+      <c r="J20" t="e">
+        <f>ABS(NewBase!J20-NewData!J20)/NewBase!J20*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L20">
-        <f>ABS(OldFixed!L20-NewData!L20)/OldFixed!L20*100</f>
+        <f>ABS(NewBase!L20-NewData!L20)/NewBase!L20*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14235,7 +14687,7 @@
         <v>63</v>
       </c>
       <c r="B21">
-        <f>ABS(OldFixed!B21-NewData!B21)/OldFixed!B21*100</f>
+        <f>ABS(NewBase!B21-NewData!B21)/NewBase!B21*100</f>
         <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -14245,7 +14697,7 @@
         <v>64</v>
       </c>
       <c r="E21">
-        <f>ABS(OldFixed!E21-NewData!E21)/OldFixed!E21*100</f>
+        <f>ABS(NewBase!E21-NewData!E21)/NewBase!E21*100</f>
         <v>100</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -14255,21 +14707,21 @@
         <v>12</v>
       </c>
       <c r="H21">
-        <f>ABS(OldFixed!H21-NewData!H21)/OldFixed!H21*100</f>
+        <f>ABS(NewBase!H21-NewData!H21)/NewBase!H21*100</f>
         <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J21">
-        <f>ABS(OldFixed!J21-NewData!J21)/OldFixed!J21*100</f>
+        <f>ABS(NewBase!J21-NewData!J21)/NewBase!J21*100</f>
         <v>100</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="L21">
-        <f>ABS(OldFixed!L21-NewData!L21)/OldFixed!L21*100</f>
+        <f>ABS(NewBase!L21-NewData!L21)/NewBase!L21*100</f>
         <v>100</v>
       </c>
       <c r="M21" s="12"/>
@@ -14279,7 +14731,7 @@
         <v>67</v>
       </c>
       <c r="B22">
-        <f>ABS(OldFixed!B22-NewData!B22)/OldFixed!B22*100</f>
+        <f>ABS(NewBase!B22-NewData!B22)/NewBase!B22*100</f>
         <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -14289,7 +14741,7 @@
         <v>68</v>
       </c>
       <c r="E22">
-        <f>ABS(OldFixed!E22-NewData!E22)/OldFixed!E22*100</f>
+        <f>ABS(NewBase!E22-NewData!E22)/NewBase!E22*100</f>
         <v>100</v>
       </c>
       <c r="F22" s="11" t="s">
@@ -14299,21 +14751,21 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <f>ABS(OldFixed!H22-NewData!H22)/OldFixed!H22*100</f>
+        <f>ABS(NewBase!H22-NewData!H22)/NewBase!H22*100</f>
         <v>100</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J22">
-        <f>ABS(OldFixed!J22-NewData!J22)/OldFixed!J22*100</f>
+        <f>ABS(NewBase!J22-NewData!J22)/NewBase!J22*100</f>
         <v>100</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L22">
-        <f>ABS(OldFixed!L22-NewData!L22)/OldFixed!L22*100</f>
+        <f>ABS(NewBase!L22-NewData!L22)/NewBase!L22*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14322,7 +14774,7 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <f>ABS(OldFixed!B23-NewData!B23)/OldFixed!B23*100</f>
+        <f>ABS(NewBase!B23-NewData!B23)/NewBase!B23*100</f>
         <v>100</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -14332,7 +14784,7 @@
         <v>72</v>
       </c>
       <c r="E23">
-        <f>ABS(OldFixed!E23-NewData!E23)/OldFixed!E23*100</f>
+        <f>ABS(NewBase!E23-NewData!E23)/NewBase!E23*100</f>
         <v>100</v>
       </c>
       <c r="F23" s="17" t="s">
@@ -14342,21 +14794,21 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <f>ABS(OldFixed!H23-NewData!H23)/OldFixed!H23*100</f>
+        <f>ABS(NewBase!H23-NewData!H23)/NewBase!H23*100</f>
         <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J23">
-        <f>ABS(OldFixed!J23-NewData!J23)/OldFixed!J23*100</f>
+        <f>ABS(NewBase!J23-NewData!J23)/NewBase!J23*100</f>
         <v>100</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L23">
-        <f>ABS(OldFixed!L23-NewData!L23)/OldFixed!L23*100</f>
+        <f>ABS(NewBase!L23-NewData!L23)/NewBase!L23*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14365,14 +14817,14 @@
         <v>65</v>
       </c>
       <c r="H24">
-        <f>ABS(OldFixed!H24-NewData!H24)/OldFixed!H24*100</f>
+        <f>ABS(NewBase!H24-NewData!H24)/NewBase!H24*100</f>
         <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J24">
-        <f>ABS(OldFixed!J24-NewData!J24)/OldFixed!J24*100</f>
+        <f>ABS(NewBase!J24-NewData!J24)/NewBase!J24*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14381,14 +14833,14 @@
         <v>69</v>
       </c>
       <c r="H25">
-        <f>ABS(OldFixed!H25-NewData!H25)/OldFixed!H25*100</f>
+        <f>ABS(NewBase!H25-NewData!H25)/NewBase!H25*100</f>
         <v>100</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J25">
-        <f>ABS(OldFixed!J25-NewData!J25)/OldFixed!J25*100</f>
+        <f>ABS(NewBase!J25-NewData!J25)/NewBase!J25*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14403,7 +14855,7 @@
         <v>73</v>
       </c>
       <c r="H26">
-        <f>ABS(OldFixed!H26-NewData!H26)/OldFixed!H26*100</f>
+        <f>ABS(NewBase!H26-NewData!H26)/NewBase!H26*100</f>
         <v>100</v>
       </c>
       <c r="N26" s="36" t="s">
@@ -14417,28 +14869,28 @@
         <v>79</v>
       </c>
       <c r="B27">
-        <f>ABS(OldFixed!B27-NewData!B27)/OldFixed!B27*100</f>
+        <f>ABS(NewBase!B27-NewData!B27)/NewBase!B27*100</f>
         <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H27">
-        <f>ABS(OldFixed!H27-NewData!H27)/OldFixed!H27*100</f>
+        <f>ABS(NewBase!H27-NewData!H27)/NewBase!H27*100</f>
         <v>100</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J27">
-        <f>ABS(OldFixed!J27-NewData!J27)/OldFixed!J27*100</f>
+        <f>ABS(NewBase!J27-NewData!J27)/NewBase!J27*100</f>
         <v>100</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O27">
-        <f>ABS(OldFixed!O27-NewData!O27)/OldFixed!O27*100</f>
+        <f>ABS(NewBase!O27-NewData!O27)/NewBase!O27*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14447,28 +14899,28 @@
         <v>82</v>
       </c>
       <c r="B28">
-        <f>ABS(OldFixed!B28-NewData!B28)/OldFixed!B28*100</f>
+        <f>ABS(NewBase!B28-NewData!B28)/NewBase!B28*100</f>
         <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H28">
-        <f>ABS(OldFixed!H28-NewData!H28)/OldFixed!H28*100</f>
+        <f>ABS(NewBase!H28-NewData!H28)/NewBase!H28*100</f>
         <v>100</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J28">
-        <f>ABS(OldFixed!J28-NewData!J28)/OldFixed!J28*100</f>
+        <f>ABS(NewBase!J28-NewData!J28)/NewBase!J28*100</f>
         <v>100</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O28">
-        <f>ABS(OldFixed!O28-NewData!O28)/OldFixed!O28*100</f>
+        <f>ABS(NewBase!O28-NewData!O28)/NewBase!O28*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14477,28 +14929,28 @@
         <v>85</v>
       </c>
       <c r="B29">
-        <f>ABS(OldFixed!B29-NewData!B29)/OldFixed!B29*100</f>
+        <f>ABS(NewBase!B29-NewData!B29)/NewBase!B29*100</f>
         <v>100</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H29">
-        <f>ABS(OldFixed!H29-NewData!H29)/OldFixed!H29*100</f>
+        <f>ABS(NewBase!H29-NewData!H29)/NewBase!H29*100</f>
         <v>100</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J29">
-        <f>ABS(OldFixed!J29-NewData!J29)/OldFixed!J29*100</f>
+        <f>ABS(NewBase!J29-NewData!J29)/NewBase!J29*100</f>
         <v>100</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="O29">
-        <f>ABS(OldFixed!O29-NewData!O29)/OldFixed!O29*100</f>
+        <f>ABS(NewBase!O29-NewData!O29)/NewBase!O29*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14507,28 +14959,28 @@
         <v>89</v>
       </c>
       <c r="B30">
-        <f>ABS(OldFixed!B30-NewData!B30)/OldFixed!B30*100</f>
+        <f>ABS(NewBase!B30-NewData!B30)/NewBase!B30*100</f>
         <v>100</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H30">
-        <f>ABS(OldFixed!H30-NewData!H30)/OldFixed!H30*100</f>
+        <f>ABS(NewBase!H30-NewData!H30)/NewBase!H30*100</f>
         <v>100</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J30">
-        <f>ABS(OldFixed!J30-NewData!J30)/OldFixed!J30*100</f>
+        <f>ABS(NewBase!J30-NewData!J30)/NewBase!J30*100</f>
         <v>100</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O30">
-        <f>ABS(OldFixed!O30-NewData!O30)/OldFixed!O30*100</f>
+        <f>ABS(NewBase!O30-NewData!O30)/NewBase!O30*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14537,7 +14989,7 @@
         <v>92</v>
       </c>
       <c r="B31">
-        <f>ABS(OldFixed!B31-NewData!B31)/OldFixed!B31*100</f>
+        <f>ABS(NewBase!B31-NewData!B31)/NewBase!B31*100</f>
         <v>100</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -14547,7 +14999,7 @@
         <v>94</v>
       </c>
       <c r="O31">
-        <f>ABS(OldFixed!O31-NewData!O31)/OldFixed!O31*100</f>
+        <f>ABS(NewBase!O31-NewData!O31)/NewBase!O31*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14556,7 +15008,7 @@
         <v>95</v>
       </c>
       <c r="B32">
-        <f>ABS(OldFixed!B32-NewData!B32)/OldFixed!B32*100</f>
+        <f>ABS(NewBase!B32-NewData!B32)/NewBase!B32*100</f>
         <v>100</v>
       </c>
       <c r="G32" s="36" t="s">
@@ -14571,7 +15023,7 @@
         <v>85</v>
       </c>
       <c r="O32">
-        <f>ABS(OldFixed!O32-NewData!O32)/OldFixed!O32*100</f>
+        <f>ABS(NewBase!O32-NewData!O32)/NewBase!O32*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14580,28 +15032,28 @@
         <v>97</v>
       </c>
       <c r="B33">
-        <f>ABS(OldFixed!B33-NewData!B33)/OldFixed!B33*100</f>
+        <f>ABS(NewBase!B33-NewData!B33)/NewBase!B33*100</f>
         <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H33">
-        <f>ABS(OldFixed!H33-NewData!H33)/OldFixed!H33*100</f>
+        <f>ABS(NewBase!H33-NewData!H33)/NewBase!H33*100</f>
         <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J33">
-        <f>ABS(OldFixed!J33-NewData!J33)/OldFixed!J33*100</f>
+        <f>ABS(NewBase!J33-NewData!J33)/NewBase!J33*100</f>
         <v>100</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O33">
-        <f>ABS(OldFixed!O33-NewData!O33)/OldFixed!O33*100</f>
+        <f>ABS(NewBase!O33-NewData!O33)/NewBase!O33*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14610,28 +15062,28 @@
         <v>99</v>
       </c>
       <c r="B34">
-        <f>ABS(OldFixed!B34-NewData!B34)/OldFixed!B34*100</f>
+        <f>ABS(NewBase!B34-NewData!B34)/NewBase!B34*100</f>
         <v>100</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H34">
-        <f>ABS(OldFixed!H34-NewData!H34)/OldFixed!H34*100</f>
+        <f>ABS(NewBase!H34-NewData!H34)/NewBase!H34*100</f>
         <v>100</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="J34">
-        <f>ABS(OldFixed!J34-NewData!J34)/OldFixed!J34*100</f>
+        <f>ABS(NewBase!J34-NewData!J34)/NewBase!J34*100</f>
         <v>100</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O34">
-        <f>ABS(OldFixed!O34-NewData!O34)/OldFixed!O34*100</f>
+        <f>ABS(NewBase!O34-NewData!O34)/NewBase!O34*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14640,14 +15092,14 @@
         <v>101</v>
       </c>
       <c r="B35">
-        <f>ABS(OldFixed!B35-NewData!B35)/OldFixed!B35*100</f>
+        <f>ABS(NewBase!B35-NewData!B35)/NewBase!B35*100</f>
         <v>100</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H35">
-        <f>ABS(OldFixed!H35-NewData!H35)/OldFixed!H35*100</f>
+        <f>ABS(NewBase!H35-NewData!H35)/NewBase!H35*100</f>
         <v>100</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -14660,7 +15112,7 @@
         <v>95</v>
       </c>
       <c r="O35">
-        <f>ABS(OldFixed!O35-NewData!O35)/OldFixed!O35*100</f>
+        <f>ABS(NewBase!O35-NewData!O35)/NewBase!O35*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14669,28 +15121,28 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <f>ABS(OldFixed!B36-NewData!B36)/OldFixed!B36*100</f>
+        <f>ABS(NewBase!B36-NewData!B36)/NewBase!B36*100</f>
         <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36">
-        <f>ABS(OldFixed!H36-NewData!H36)/OldFixed!H36*100</f>
+        <f>ABS(NewBase!H36-NewData!H36)/NewBase!H36*100</f>
         <v>100</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J36">
-        <f>ABS(OldFixed!J36-NewData!J36)/OldFixed!J36*100</f>
+        <f>ABS(NewBase!J36-NewData!J36)/NewBase!J36*100</f>
         <v>100</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O36">
-        <f>ABS(OldFixed!O36-NewData!O36)/OldFixed!O36*100</f>
+        <f>ABS(NewBase!O36-NewData!O36)/NewBase!O36*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14699,28 +15151,28 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <f>ABS(OldFixed!B37-NewData!B37)/OldFixed!B37*100</f>
+        <f>ABS(NewBase!B37-NewData!B37)/NewBase!B37*100</f>
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H37">
-        <f>ABS(OldFixed!H37-NewData!H37)/OldFixed!H37*100</f>
+        <f>ABS(NewBase!H37-NewData!H37)/NewBase!H37*100</f>
         <v>100</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J37">
-        <f>ABS(OldFixed!J37-NewData!J37)/OldFixed!J37*100</f>
+        <f>ABS(NewBase!J37-NewData!J37)/NewBase!J37*100</f>
         <v>100</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O37">
-        <f>ABS(OldFixed!O37-NewData!O37)/OldFixed!O37*100</f>
+        <f>ABS(NewBase!O37-NewData!O37)/NewBase!O37*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14729,28 +15181,28 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <f>ABS(OldFixed!B38-NewData!B38)/OldFixed!B38*100</f>
+        <f>ABS(NewBase!B38-NewData!B38)/NewBase!B38*100</f>
         <v>100</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H38">
-        <f>ABS(OldFixed!H38-NewData!H38)/OldFixed!H38*100</f>
+        <f>ABS(NewBase!H38-NewData!H38)/NewBase!H38*100</f>
         <v>100</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J38">
-        <f>ABS(OldFixed!J38-NewData!J38)/OldFixed!J38*100</f>
+        <f>ABS(NewBase!J38-NewData!J38)/NewBase!J38*100</f>
         <v>100</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>101</v>
       </c>
       <c r="O38">
-        <f>ABS(OldFixed!O38-NewData!O38)/OldFixed!O38*100</f>
+        <f>ABS(NewBase!O38-NewData!O38)/NewBase!O38*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14765,21 +15217,21 @@
         <v>65</v>
       </c>
       <c r="H39">
-        <f>ABS(OldFixed!H39-NewData!H39)/OldFixed!H39*100</f>
+        <f>ABS(NewBase!H39-NewData!H39)/NewBase!H39*100</f>
         <v>100</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J39">
-        <f>ABS(OldFixed!J39-NewData!J39)/OldFixed!J39*100</f>
+        <f>ABS(NewBase!J39-NewData!J39)/NewBase!J39*100</f>
         <v>100</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39">
-        <f>ABS(OldFixed!O39-NewData!O39)/OldFixed!O39*100</f>
+        <f>ABS(NewBase!O39-NewData!O39)/NewBase!O39*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14794,21 +15246,21 @@
         <v>69</v>
       </c>
       <c r="H40">
-        <f>ABS(OldFixed!H40-NewData!H40)/OldFixed!H40*100</f>
+        <f>ABS(NewBase!H40-NewData!H40)/NewBase!H40*100</f>
         <v>100</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J40">
-        <f>ABS(OldFixed!J40-NewData!J40)/OldFixed!J40*100</f>
+        <f>ABS(NewBase!J40-NewData!J40)/NewBase!J40*100</f>
         <v>100</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O40">
-        <f>ABS(OldFixed!O40-NewData!O40)/OldFixed!O40*100</f>
+        <f>ABS(NewBase!O40-NewData!O40)/NewBase!O40*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14820,21 +15272,21 @@
         <v>73</v>
       </c>
       <c r="H41">
-        <f>ABS(OldFixed!H41-NewData!H41)/OldFixed!H41*100</f>
+        <f>ABS(NewBase!H41-NewData!H41)/NewBase!H41*100</f>
         <v>100</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J41">
-        <f>ABS(OldFixed!J41-NewData!J41)/OldFixed!J41*100</f>
+        <f>ABS(NewBase!J41-NewData!J41)/NewBase!J41*100</f>
         <v>100</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="O41">
-        <f>ABS(OldFixed!O41-NewData!O41)/OldFixed!O41*100</f>
+        <f>ABS(NewBase!O41-NewData!O41)/NewBase!O41*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14843,21 +15295,21 @@
         <v>113</v>
       </c>
       <c r="B42">
-        <f>ABS(OldFixed!B42-NewData!B42)/OldFixed!B42*100</f>
+        <f>ABS(NewBase!B42-NewData!B42)/NewBase!B42*100</f>
         <v>100</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42">
-        <f>ABS(OldFixed!H42-NewData!H42)/OldFixed!H42*100</f>
+        <f>ABS(NewBase!H42-NewData!H42)/NewBase!H42*100</f>
         <v>100</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J42">
-        <f>ABS(OldFixed!J42-NewData!J42)/OldFixed!J42*100</f>
+        <f>ABS(NewBase!J42-NewData!J42)/NewBase!J42*100</f>
         <v>100</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -14878,14 +15330,14 @@
         <v>76</v>
       </c>
       <c r="H43">
-        <f>ABS(OldFixed!H43-NewData!H43)/OldFixed!H43*100</f>
+        <f>ABS(NewBase!H43-NewData!H43)/NewBase!H43*100</f>
         <v>100</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>116</v>
       </c>
       <c r="J43">
-        <f>ABS(OldFixed!J43-NewData!J43)/OldFixed!J43*100</f>
+        <f>ABS(NewBase!J43-NewData!J43)/NewBase!J43*100</f>
         <v>100</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -14906,14 +15358,14 @@
         <v>118</v>
       </c>
       <c r="H44">
-        <f>ABS(OldFixed!H44-NewData!H44)/OldFixed!H44*100</f>
+        <f>ABS(NewBase!H44-NewData!H44)/NewBase!H44*100</f>
         <v>100</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J44">
-        <f>ABS(OldFixed!J44-NewData!J44)/OldFixed!J44*100</f>
+        <f>ABS(NewBase!J44-NewData!J44)/NewBase!J44*100</f>
         <v>100</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -14931,14 +15383,14 @@
         <v>122</v>
       </c>
       <c r="H45">
-        <f>ABS(OldFixed!H45-NewData!H45)/OldFixed!H45*100</f>
+        <f>ABS(NewBase!H45-NewData!H45)/NewBase!H45*100</f>
         <v>100</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="O45">
-        <f>ABS(OldFixed!O45-NewData!O45)/OldFixed!O45*100</f>
+        <f>ABS(NewBase!O45-NewData!O45)/NewBase!O45*100</f>
         <v>100</v>
       </c>
     </row>
@@ -14947,7 +15399,7 @@
         <v>123</v>
       </c>
       <c r="B46">
-        <f>ABS(OldFixed!B46-NewData!B46)/OldFixed!B46*100</f>
+        <f>ABS(NewBase!B46-NewData!B46)/NewBase!B46*100</f>
         <v>100</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -14965,15 +15417,13 @@
         <v>124</v>
       </c>
       <c r="B47">
-        <f>ABS(OldFixed!B47-NewData!B47)/OldFixed!B47*100</f>
+        <f>ABS(NewBase!B47-NewData!B47)/NewBase!B47*100</f>
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="13">
-        <v>2.6550532069886754E-3</v>
-      </c>
+      <c r="D47" s="13"/>
       <c r="N47" s="1" t="s">
         <v>117</v>
       </c>
@@ -14986,15 +15436,13 @@
         <v>126</v>
       </c>
       <c r="B48">
-        <f>ABS(OldFixed!B48-NewData!B48)/OldFixed!B48*100</f>
+        <f>ABS(NewBase!B48-NewData!B48)/NewBase!B48*100</f>
         <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="13">
-        <v>3.0252773462319579E-3</v>
-      </c>
+      <c r="D48" s="13"/>
       <c r="G48" s="36" t="s">
         <v>128</v>
       </c>
@@ -15013,15 +15461,13 @@
         <v>129</v>
       </c>
       <c r="B49">
-        <f>ABS(OldFixed!B49-NewData!B49)/OldFixed!B49*100</f>
+        <f>ABS(NewBase!B49-NewData!B49)/NewBase!B49*100</f>
         <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="13">
-        <v>1.4073946498798977E-3</v>
-      </c>
+      <c r="D49" s="13"/>
       <c r="H49" s="7" t="s">
         <v>131</v>
       </c>
@@ -15041,7 +15487,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <f>ABS(OldFixed!O49-NewData!O49)/OldFixed!O49*100</f>
+        <f>ABS(NewBase!O49-NewData!O49)/NewBase!O49*100</f>
         <v>100</v>
       </c>
     </row>
@@ -15050,15 +15496,1803 @@
         <v>134</v>
       </c>
       <c r="B50">
-        <f>ABS(OldFixed!B50-NewData!B50)/OldFixed!B50*100</f>
+        <f>ABS(NewBase!B50-NewData!B50)/NewBase!B50*100</f>
         <v>100</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="13">
-        <v>1.5942812902127641E-3</v>
-      </c>
+      <c r="D50" s="13"/>
+      <c r="G50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50">
+        <f>ABS(NewBase!L50-NewData!L50)/NewBase!L50*100</f>
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <f>ABS(NewBase!M50-NewData!M50)/NewBase!M50*100</f>
+        <v>100</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50">
+        <f>ABS(NewBase!O50-NewData!O50)/NewBase!O50*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51">
+        <f>ABS(NewBase!B51-NewData!B51)/NewBase!B51*100</f>
+        <v>100</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L51">
+        <f>ABS(NewBase!L51-NewData!L51)/NewBase!L51*100</f>
+        <v>100</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O51">
+        <f>ABS(NewBase!O51-NewData!O51)/NewBase!O51*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <f>ABS(NewBase!B52-NewData!B52)/NewBase!B52*100</f>
+        <v>100</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L52">
+        <f>ABS(NewBase!L52-NewData!L52)/NewBase!L52*100</f>
+        <v>100</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52">
+        <f>ABS(NewBase!O52-NewData!O52)/NewBase!O52*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53">
+        <f>ABS(NewBase!B53-NewData!B53)/NewBase!B53*100</f>
+        <v>100</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53">
+        <f>ABS(NewBase!M53-NewData!M53)/NewBase!M53*100</f>
+        <v>100</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53">
+        <f>ABS(NewBase!O53-NewData!O53)/NewBase!O53*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54">
+        <f>ABS(NewBase!B54-NewData!B54)/NewBase!B54*100</f>
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M54">
+        <f>ABS(NewBase!M54-NewData!M54)/NewBase!M54*100</f>
+        <v>100</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O54">
+        <f>ABS(NewBase!O54-NewData!O54)/NewBase!O54*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="K55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M55">
+        <f>ABS(NewBase!M55-NewData!M55)/NewBase!M55*100</f>
+        <v>100</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O55">
+        <f>ABS(NewBase!O55-NewData!O55)/NewBase!O55*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56">
+        <f>ABS(NewBase!L56-NewData!L56)/NewBase!L56*100</f>
+        <v>100</v>
+      </c>
+      <c r="M56">
+        <f>ABS(NewBase!M56-NewData!M56)/NewBase!M56*100</f>
+        <v>100</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O56">
+        <f>ABS(NewBase!O56-NewData!O56)/NewBase!O56*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L57">
+        <f>ABS(NewBase!L57-NewData!L57)/NewBase!L57*100</f>
+        <v>100</v>
+      </c>
+      <c r="M57">
+        <f>ABS(NewBase!M57-NewData!M57)/NewBase!M57*100</f>
+        <v>100</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57">
+        <f>ABS(NewBase!O57-NewData!O57)/NewBase!O57*100</f>
+        <v>100</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L58">
+        <f>ABS(NewBase!L58-NewData!L58)/NewBase!L58*100</f>
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <f>ABS(NewBase!M58-NewData!M58)/NewBase!M58*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59">
+        <f>ABS(NewBase!L59-NewData!L59)/NewBase!L59*100</f>
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <f>ABS(NewBase!M59-NewData!M59)/NewBase!M59*100</f>
+        <v>100</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L60">
+        <f>ABS(NewBase!L60-NewData!L60)/NewBase!L60*100</f>
+        <v>100</v>
+      </c>
+      <c r="M60">
+        <f>ABS(NewBase!M60-NewData!M60)/NewBase!M60*100</f>
+        <v>100</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L61">
+        <f>ABS(NewBase!L61-NewData!L61)/NewBase!L61*100</f>
+        <v>100</v>
+      </c>
+      <c r="M61">
+        <f>ABS(NewBase!M61-NewData!M61)/NewBase!M61*100</f>
+        <v>100</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L62">
+        <f>ABS(NewBase!L62-NewData!L62)/NewBase!L62*100</f>
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <f>ABS(NewBase!M62-NewData!M62)/NewBase!M62*100</f>
+        <v>100</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63">
+        <f>ABS(NewBase!L63-NewData!L63)/NewBase!L63*100</f>
+        <v>100</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M64">
+        <f>ABS(NewBase!M64-NewData!M64)/NewBase!M64*100</f>
+        <v>100</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1">
+      <c r="K65" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L65">
+        <f>ABS(NewBase!L65-NewData!L65)/NewBase!L65*100</f>
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <f>ABS(NewBase!M65-NewData!M65)/NewBase!M65*100</f>
+        <v>100</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A68" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="N70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="N71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" thickBot="1">
+      <c r="N72" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:M48"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E84DC-4DF4-4023-8F21-55FF6E4C6CB5}">
+  <dimension ref="A1:P72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>ABS(OldFixed!B1-NewData!B1)/OldFixed!B1*100</f>
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f>ABS(OldFixed!E1-NewData!E1)/OldFixed!E1*100</f>
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>ABS(OldFixed!B2-NewData!B2)/OldFixed!B2*100</f>
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>ABS(OldFixed!E2-NewData!E2)/OldFixed!E2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>ABS(OldFixed!B3-NewData!B3)/OldFixed!B3*100</f>
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <f>ABS(OldFixed!E3-NewData!E3)/OldFixed!E3*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>ABS(OldFixed!B4-NewData!B4)/OldFixed!B4*100</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <f>ABS(OldFixed!E4-NewData!E4)/OldFixed!E4*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>ABS(OldFixed!B5-NewData!B5)/OldFixed!B5*100</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <f>ABS(OldFixed!E5-NewData!E5)/OldFixed!E5*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <f>ABS(OldFixed!B6-NewData!B6)/OldFixed!B6*100</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <f>ABS(OldFixed!E6-NewData!E6)/OldFixed!E6*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>ABS(OldFixed!B7-NewData!B7)/OldFixed!B7*100</f>
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f>ABS(OldFixed!E7-NewData!E7)/OldFixed!E7*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f>ABS(OldFixed!B8-NewData!B8)/OldFixed!B8*100</f>
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <f>ABS(OldFixed!E8-NewData!E8)/OldFixed!E8*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <f>ABS(OldFixed!B9-NewData!B9)/OldFixed!B9*100</f>
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f>ABS(OldFixed!E9-NewData!E9)/OldFixed!E9*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <f>ABS(OldFixed!B10-NewData!B10)/OldFixed!B10*100</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <f>ABS(OldFixed!E10-NewData!E10)/OldFixed!E10*100</f>
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f>ABS(OldFixed!G10-NewData!G10)/OldFixed!G10*100</f>
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f>ABS(OldFixed!H10-NewData!H10)/OldFixed!H10*100</f>
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <f>ABS(OldFixed!I10-NewData!I10)/OldFixed!I10*100</f>
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <f>ABS(OldFixed!J10-NewData!J10)/OldFixed!J10*100</f>
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <f>ABS(OldFixed!K10-NewData!K10)/OldFixed!K10*100</f>
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <f>ABS(OldFixed!L10-NewData!L10)/OldFixed!L10*100</f>
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <f>ABS(OldFixed!M10-NewData!M10)/OldFixed!M10*100</f>
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <f>ABS(OldFixed!N10-NewData!N10)/OldFixed!N10*100</f>
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <f>ABS(OldFixed!O10-NewData!O10)/OldFixed!O10*100</f>
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <f>ABS(OldFixed!P10-NewData!P10)/OldFixed!P10*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <f>ABS(OldFixed!B11-NewData!B11)/OldFixed!B11*100</f>
+        <v>100</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <f>ABS(OldFixed!E11-NewData!E11)/OldFixed!E11*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>ABS(OldFixed!B12-NewData!B12)/OldFixed!B12*100</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <f>ABS(OldFixed!E12-NewData!E12)/OldFixed!E12*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f>ABS(OldFixed!B13-NewData!B13)/OldFixed!B13*100</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <f>ABS(OldFixed!E13-NewData!E13)/OldFixed!E13*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>ABS(OldFixed!B14-NewData!B14)/OldFixed!B14*100</f>
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <f>ABS(OldFixed!E14-NewData!E14)/OldFixed!E14*100</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <f>ABS(OldFixed!B15-NewData!B15)/OldFixed!B15*100</f>
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f>ABS(OldFixed!E15-NewData!E15)/OldFixed!E15*100</f>
+        <v>100</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f>ABS(OldFixed!B16-NewData!B16)/OldFixed!B16*100</f>
+        <v>100</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <f>ABS(OldFixed!E16-NewData!E16)/OldFixed!E16*100</f>
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <f>ABS(OldFixed!B17-NewData!B17)/OldFixed!B17*100</f>
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <f>ABS(OldFixed!E17-NewData!E17)/OldFixed!E17*100</f>
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <f>ABS(OldFixed!B18-NewData!B18)/OldFixed!B18*100</f>
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <f>ABS(OldFixed!E18-NewData!E18)/OldFixed!E18*100</f>
+        <v>100</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f>ABS(OldFixed!H18-NewData!H18)/OldFixed!H18*100</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18">
+        <f>ABS(OldFixed!J18-NewData!J18)/OldFixed!J18*100</f>
+        <v>100</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <f>ABS(OldFixed!L18-NewData!L18)/OldFixed!L18*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <f>ABS(OldFixed!B19-NewData!B19)/OldFixed!B19*100</f>
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <f>ABS(OldFixed!E19-NewData!E19)/OldFixed!E19*100</f>
+        <v>100</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <f>ABS(OldFixed!H19-NewData!H19)/OldFixed!H19*100</f>
+        <v>100</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <f>ABS(OldFixed!J19-NewData!J19)/OldFixed!J19*100</f>
+        <v>100</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <f>ABS(OldFixed!L19-NewData!L19)/OldFixed!L19*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <f>ABS(OldFixed!B20-NewData!B20)/OldFixed!B20*100</f>
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <f>ABS(OldFixed!E20-NewData!E20)/OldFixed!E20*100</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <f>ABS(OldFixed!H20-NewData!H20)/OldFixed!H20*100</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <f>ABS(OldFixed!J20-NewData!J20)/OldFixed!J20*100</f>
+        <v>100</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20">
+        <f>ABS(OldFixed!L20-NewData!L20)/OldFixed!L20*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <f>ABS(OldFixed!B21-NewData!B21)/OldFixed!B21*100</f>
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <f>ABS(OldFixed!E21-NewData!E21)/OldFixed!E21*100</f>
+        <v>100</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <f>ABS(OldFixed!H21-NewData!H21)/OldFixed!H21*100</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21">
+        <f>ABS(OldFixed!J21-NewData!J21)/OldFixed!J21*100</f>
+        <v>100</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <f>ABS(OldFixed!L21-NewData!L21)/OldFixed!L21*100</f>
+        <v>100</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <f>ABS(OldFixed!B22-NewData!B22)/OldFixed!B22*100</f>
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <f>ABS(OldFixed!E22-NewData!E22)/OldFixed!E22*100</f>
+        <v>100</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <f>ABS(OldFixed!H22-NewData!H22)/OldFixed!H22*100</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22">
+        <f>ABS(OldFixed!J22-NewData!J22)/OldFixed!J22*100</f>
+        <v>100</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <f>ABS(OldFixed!L22-NewData!L22)/OldFixed!L22*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <f>ABS(OldFixed!B23-NewData!B23)/OldFixed!B23*100</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <f>ABS(OldFixed!E23-NewData!E23)/OldFixed!E23*100</f>
+        <v>100</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f>ABS(OldFixed!H23-NewData!H23)/OldFixed!H23*100</f>
+        <v>100</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23">
+        <f>ABS(OldFixed!J23-NewData!J23)/OldFixed!J23*100</f>
+        <v>100</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23">
+        <f>ABS(OldFixed!L23-NewData!L23)/OldFixed!L23*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <f>ABS(OldFixed!H24-NewData!H24)/OldFixed!H24*100</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <f>ABS(OldFixed!J24-NewData!J24)/OldFixed!J24*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25">
+        <f>ABS(OldFixed!H25-NewData!H25)/OldFixed!H25*100</f>
+        <v>100</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25">
+        <f>ABS(OldFixed!J25-NewData!J25)/OldFixed!J25*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <f>ABS(OldFixed!H26-NewData!H26)/OldFixed!H26*100</f>
+        <v>100</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <f>ABS(OldFixed!B27-NewData!B27)/OldFixed!B27*100</f>
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <f>ABS(OldFixed!H27-NewData!H27)/OldFixed!H27*100</f>
+        <v>100</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <f>ABS(OldFixed!J27-NewData!J27)/OldFixed!J27*100</f>
+        <v>100</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27">
+        <f>ABS(OldFixed!O27-NewData!O27)/OldFixed!O27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <f>ABS(OldFixed!B28-NewData!B28)/OldFixed!B28*100</f>
+        <v>100</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <f>ABS(OldFixed!H28-NewData!H28)/OldFixed!H28*100</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28">
+        <f>ABS(OldFixed!J28-NewData!J28)/OldFixed!J28*100</f>
+        <v>100</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28">
+        <f>ABS(OldFixed!O28-NewData!O28)/OldFixed!O28*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <f>ABS(OldFixed!B29-NewData!B29)/OldFixed!B29*100</f>
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <f>ABS(OldFixed!H29-NewData!H29)/OldFixed!H29*100</f>
+        <v>100</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29">
+        <f>ABS(OldFixed!J29-NewData!J29)/OldFixed!J29*100</f>
+        <v>100</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29">
+        <f>ABS(OldFixed!O29-NewData!O29)/OldFixed!O29*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <f>ABS(OldFixed!B30-NewData!B30)/OldFixed!B30*100</f>
+        <v>100</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <f>ABS(OldFixed!H30-NewData!H30)/OldFixed!H30*100</f>
+        <v>100</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <f>ABS(OldFixed!J30-NewData!J30)/OldFixed!J30*100</f>
+        <v>100</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30">
+        <f>ABS(OldFixed!O30-NewData!O30)/OldFixed!O30*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <f>ABS(OldFixed!B31-NewData!B31)/OldFixed!B31*100</f>
+        <v>100</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31">
+        <f>ABS(OldFixed!O31-NewData!O31)/OldFixed!O31*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <f>ABS(OldFixed!B32-NewData!B32)/OldFixed!B32*100</f>
+        <v>100</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="N32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32">
+        <f>ABS(OldFixed!O32-NewData!O32)/OldFixed!O32*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <f>ABS(OldFixed!B33-NewData!B33)/OldFixed!B33*100</f>
+        <v>100</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f>ABS(OldFixed!H33-NewData!H33)/OldFixed!H33*100</f>
+        <v>100</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33">
+        <f>ABS(OldFixed!J33-NewData!J33)/OldFixed!J33*100</f>
+        <v>100</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33">
+        <f>ABS(OldFixed!O33-NewData!O33)/OldFixed!O33*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
+        <f>ABS(OldFixed!B34-NewData!B34)/OldFixed!B34*100</f>
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <f>ABS(OldFixed!H34-NewData!H34)/OldFixed!H34*100</f>
+        <v>100</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <f>ABS(OldFixed!J34-NewData!J34)/OldFixed!J34*100</f>
+        <v>100</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34">
+        <f>ABS(OldFixed!O34-NewData!O34)/OldFixed!O34*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <f>ABS(OldFixed!B35-NewData!B35)/OldFixed!B35*100</f>
+        <v>100</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35">
+        <f>ABS(OldFixed!H35-NewData!H35)/OldFixed!H35*100</f>
+        <v>100</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35">
+        <f>ABS(OldFixed!O35-NewData!O35)/OldFixed!O35*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <f>ABS(OldFixed!B36-NewData!B36)/OldFixed!B36*100</f>
+        <v>100</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <f>ABS(OldFixed!H36-NewData!H36)/OldFixed!H36*100</f>
+        <v>100</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36">
+        <f>ABS(OldFixed!J36-NewData!J36)/OldFixed!J36*100</f>
+        <v>100</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36">
+        <f>ABS(OldFixed!O36-NewData!O36)/OldFixed!O36*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <f>ABS(OldFixed!B37-NewData!B37)/OldFixed!B37*100</f>
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <f>ABS(OldFixed!H37-NewData!H37)/OldFixed!H37*100</f>
+        <v>100</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37">
+        <f>ABS(OldFixed!J37-NewData!J37)/OldFixed!J37*100</f>
+        <v>100</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O37">
+        <f>ABS(OldFixed!O37-NewData!O37)/OldFixed!O37*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <f>ABS(OldFixed!B38-NewData!B38)/OldFixed!B38*100</f>
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <f>ABS(OldFixed!H38-NewData!H38)/OldFixed!H38*100</f>
+        <v>100</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <f>ABS(OldFixed!J38-NewData!J38)/OldFixed!J38*100</f>
+        <v>100</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O38">
+        <f>ABS(OldFixed!O38-NewData!O38)/OldFixed!O38*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <f>ABS(OldFixed!H39-NewData!H39)/OldFixed!H39*100</f>
+        <v>100</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39">
+        <f>ABS(OldFixed!J39-NewData!J39)/OldFixed!J39*100</f>
+        <v>100</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39">
+        <f>ABS(OldFixed!O39-NewData!O39)/OldFixed!O39*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40">
+        <f>ABS(OldFixed!H40-NewData!H40)/OldFixed!H40*100</f>
+        <v>100</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40">
+        <f>ABS(OldFixed!J40-NewData!J40)/OldFixed!J40*100</f>
+        <v>100</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40">
+        <f>ABS(OldFixed!O40-NewData!O40)/OldFixed!O40*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41">
+        <f>ABS(OldFixed!H41-NewData!H41)/OldFixed!H41*100</f>
+        <v>100</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41">
+        <f>ABS(OldFixed!J41-NewData!J41)/OldFixed!J41*100</f>
+        <v>100</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41">
+        <f>ABS(OldFixed!O41-NewData!O41)/OldFixed!O41*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <f>ABS(OldFixed!B42-NewData!B42)/OldFixed!B42*100</f>
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <f>ABS(OldFixed!H42-NewData!H42)/OldFixed!H42*100</f>
+        <v>100</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42">
+        <f>ABS(OldFixed!J42-NewData!J42)/OldFixed!J42*100</f>
+        <v>100</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43">
+        <f>ABS(OldFixed!H43-NewData!H43)/OldFixed!H43*100</f>
+        <v>100</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43">
+        <f>ABS(OldFixed!J43-NewData!J43)/OldFixed!J43*100</f>
+        <v>100</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44">
+        <f>ABS(OldFixed!H44-NewData!H44)/OldFixed!H44*100</f>
+        <v>100</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44">
+        <f>ABS(OldFixed!J44-NewData!J44)/OldFixed!J44*100</f>
+        <v>100</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45">
+        <f>ABS(OldFixed!H45-NewData!H45)/OldFixed!H45*100</f>
+        <v>100</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45">
+        <f>ABS(OldFixed!O45-NewData!O45)/OldFixed!O45*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <f>ABS(OldFixed!B46-NewData!B46)/OldFixed!B46*100</f>
+        <v>100</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47">
+        <f>ABS(OldFixed!B47-NewData!B47)/OldFixed!B47*100</f>
+        <v>100</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="N47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <f>ABS(OldFixed!B48-NewData!B48)/OldFixed!B48*100</f>
+        <v>100</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="G48" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49">
+        <f>ABS(OldFixed!B49-NewData!B49)/OldFixed!B49*100</f>
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="H49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49">
+        <f>ABS(OldFixed!O49-NewData!O49)/OldFixed!O49*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50">
+        <f>ABS(OldFixed!B50-NewData!B50)/OldFixed!B50*100</f>
+        <v>100</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="13"/>
       <c r="G50" s="1" t="s">
         <v>136</v>
       </c>
@@ -15491,7 +17725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B297854-FFD0-4488-ADAB-145299017A31}">
   <dimension ref="A1:P72"/>
   <sheetViews>

--- a/data/QuickDataComparisonKwak.xlsx
+++ b/data/QuickDataComparisonKwak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvand\PycharmProjects\ThesisEP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC379B-C1D4-442E-9B41-2EAC97149826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838A2F8-2565-4D1B-9463-4D5A46661A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15840" xr2:uid="{1331D3C5-5F4D-44FE-B969-C723D61ACB2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1331D3C5-5F4D-44FE-B969-C723D61ACB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="NewData" sheetId="1" r:id="rId1"/>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BAB54F-E073-474B-80A6-01D0117EBAF8}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1381,11 +1381,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>2009</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="E1">
+        <v>198</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1415,125 +1421,215 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B2">
+        <v>2024.7</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3">
+        <v>44.129925</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0.61</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B4">
+        <v>1.667</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B5">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B6">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B7">
+        <v>0.32</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="H10">
+        <v>1803</v>
+      </c>
+      <c r="I10">
+        <v>1.9912000000000001</v>
+      </c>
+      <c r="J10">
+        <v>20.890587470059611</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B13">
+        <v>2080.0000037024638</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="E13">
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B14">
+        <v>274.10000000000002</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1126.0999999999999</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -1543,11 +1639,17 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="E15">
+        <v>804.2</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
@@ -1557,11 +1659,17 @@
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B16">
+        <v>900</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="E16">
+        <v>8220</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
@@ -1571,11 +1679,17 @@
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="E17">
+        <v>2850</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -1593,92 +1707,152 @@
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B18">
+        <v>13.5</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="E18">
+        <v>2850</v>
+      </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
       <c r="K18" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="L18">
+        <v>0.86379236857452968</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="E19">
+        <v>4430</v>
+      </c>
       <c r="F19" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H19">
+        <v>14.835344725114799</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="K19" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="L19">
+        <v>0.20940421056352271</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="E20">
+        <v>550</v>
+      </c>
       <c r="F20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H20">
+        <v>6.0552427449448141</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="L20">
+        <v>0.65438815801100836</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B21">
+        <v>5.3</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
       <c r="F21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H21">
+        <v>283.54059888793643</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="J21">
+        <v>15.033926137742551</v>
+      </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="L21">
+        <v>14.824521927179029</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -1686,46 +1860,76 @@
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E22">
+        <v>250</v>
+      </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H22">
+        <v>1803</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="J22">
+        <v>6.6758096594065588</v>
+      </c>
       <c r="K22" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="L22">
+        <v>6.021421501395551</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1">
       <c r="A23" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="B23">
+        <v>6.95</v>
+      </c>
       <c r="C23" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>72</v>
       </c>
+      <c r="E23">
+        <v>1100</v>
+      </c>
       <c r="F23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H23">
+        <v>1.9912000000000001</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="J23">
+        <v>154.74369162775591</v>
+      </c>
       <c r="K23" s="4" t="s">
         <v>74</v>
+      </c>
+      <c r="L23">
+        <v>20.845943428574579</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1733,8 +1937,14 @@
       <c r="G24" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="H24">
+        <v>15.033926137742551</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="J24">
+        <v>144.2500283138717</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
@@ -1742,8 +1952,14 @@
       <c r="G25" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H25">
+        <v>6.6758096594065588</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>76</v>
+      </c>
+      <c r="J25">
+        <v>298.9937199416276</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1756,6 +1972,9 @@
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H26">
+        <v>154.74369162775591</v>
+      </c>
       <c r="N26" s="27" t="s">
         <v>78</v>
       </c>
@@ -1766,72 +1985,129 @@
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B27">
+        <v>22.147682958639081</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="H27">
+        <v>144.2500283138717</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="O27">
+        <v>7.6349849942768531</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B28">
+        <v>0.1194266646748645</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="H28">
+        <v>298.9937199416276</v>
+      </c>
       <c r="I28" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="J28">
+        <v>7.6499999999999986</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="O28">
+        <v>9.2018775626249401</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B29">
+        <v>7592.1326995599893</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="H29">
+        <v>20.845943428574579</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="J29">
+        <v>10.6</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="O29">
+        <v>54.854313834888899</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B30">
+        <v>3371.2838780003131</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="H30">
+        <v>0.86379236857452968</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="J30">
+        <v>28.37569419109003</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="O30">
+        <v>5.1004888302616003</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B31">
+        <v>6.741970250919092</v>
+      </c>
       <c r="G31" s="14" t="s">
         <v>93</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="O31">
+        <v>333.74428020188759</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B32">
+        <v>4.1920963417064314</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>96</v>
@@ -1844,154 +2120,277 @@
       <c r="N32" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="O32">
+        <v>7491.8490861829714</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B33">
+        <v>43.758238336543172</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
       <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="J33">
+        <v>141770299.44396821</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="O33">
+        <v>3057.8975861971312</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B34">
+        <v>0.33710050334082642</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H34">
+        <v>14.835344725114799</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="J34">
+        <v>13034566.450773461</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="O34">
+        <v>6.6529163361894783</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B35">
+        <v>7.6184283743334458</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H35">
+        <v>6.0552427449448141</v>
+      </c>
       <c r="I35" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>103</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="O35">
+        <v>3.802409333744257</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B36">
+        <v>4.5274640490429459</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H36">
+        <v>283.54059888793643</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="J36">
+        <v>0.33262252988030211</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="O36">
+        <v>42.203623332066698</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B37">
+        <v>1.220653104030561</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H37">
+        <v>1803</v>
+      </c>
       <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="J37">
+        <v>14.835344725114799</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="O37">
+        <v>0.32512420995168939</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B38">
+        <v>1.0262554276841429</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H38">
+        <v>1.9912000000000001</v>
+      </c>
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="J38">
+        <v>6.3878652748251161</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O38">
+        <v>7.5102738530363267</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="H39">
+        <v>14.835344725114799</v>
+      </c>
       <c r="I39" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="J39">
+        <v>152.69969988553709</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="O39">
+        <v>4.106602080443797</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H40">
+        <v>6.3878652748251161</v>
+      </c>
       <c r="I40" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="J40">
+        <v>138.02816343937411</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="O40">
+        <v>1.214849244681474</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H41">
+        <v>152.69969988553709</v>
+      </c>
       <c r="I41" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="J41">
+        <v>290.72786332491108</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="O41">
+        <v>0.99341642857921075</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B42">
+        <v>1.92553262073625</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="H42">
+        <v>138.02816343937411</v>
+      </c>
       <c r="I42" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="J42">
+        <v>145363931.66245559</v>
+      </c>
       <c r="N42" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>109</v>
@@ -2001,17 +2400,29 @@
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="H43">
+        <v>290.72786332491108</v>
+      </c>
       <c r="I43" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="J43">
+        <v>13364970.19637624</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
       </c>
       <c r="P43" s="13" t="s">
         <v>111</v>
@@ -2021,42 +2432,69 @@
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="H44">
+        <v>0.33262252988030211</v>
+      </c>
       <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
       <c r="K44" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="H45">
+        <v>20.890587470059611</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="O45">
+        <v>1.918534978019403</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="B46">
+        <v>1.7104257128069049</v>
+      </c>
       <c r="G46" s="14" t="s">
         <v>93</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
       </c>
       <c r="P46" s="13" t="s">
         <v>109</v>
@@ -2066,6 +2504,9 @@
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B47">
+        <v>435028.78214026737</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
@@ -2073,6 +2514,9 @@
       <c r="N47" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
       <c r="P47" s="13" t="s">
         <v>111</v>
       </c>
@@ -2080,6 +2524,9 @@
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="B48">
+        <v>495688.78237656411</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
@@ -2097,10 +2544,16 @@
       <c r="N48" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="B49">
+        <v>274280.7147059096</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>130</v>
@@ -2116,11 +2569,17 @@
       <c r="N49" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="O49">
+        <v>1.655694047632017</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B50">
+        <v>310701.78676477401</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
@@ -2128,79 +2587,199 @@
       <c r="G50" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="H50">
+        <v>11303.59417367547</v>
+      </c>
+      <c r="I50">
+        <v>11266.576281758889</v>
+      </c>
+      <c r="J50">
+        <v>1.0032856380670421</v>
+      </c>
       <c r="K50" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="L50">
+        <v>22.267109623313949</v>
+      </c>
+      <c r="M50">
+        <v>76.791665222052288</v>
+      </c>
       <c r="N50" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="O50">
+        <v>434969.45742374379</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="B51">
+        <v>151.56168405536849</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="H51">
+        <v>379.6493680134418</v>
+      </c>
+      <c r="I51">
+        <v>755.25585953377765</v>
+      </c>
+      <c r="J51">
+        <v>0.50267649462236652</v>
+      </c>
       <c r="K51" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="L51">
+        <v>22.147682958639081</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
       <c r="N51" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="O51">
+        <v>495341.03656126588</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="B52">
+        <v>56.611414856055262</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="H52">
+        <v>10963.4165775603</v>
+      </c>
+      <c r="I52">
+        <v>10549.746672380101</v>
+      </c>
+      <c r="J52">
+        <v>1.0392113590995711</v>
+      </c>
       <c r="K52" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="L52">
+        <v>0.1194266646748645</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
       <c r="N52" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="O52">
+        <v>273503.75962534657</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="B53">
+        <v>65.979149243884763</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H53">
+        <v>431.89618428726482</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="K53" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>16.836862556901789</v>
+      </c>
       <c r="N53" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="O53">
+        <v>308759.3990633667</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B54">
+        <v>11303.59417367547</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>333.74428020188759</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
       <c r="K54" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>54.854313834888899</v>
+      </c>
       <c r="N54" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="O54">
+        <v>149.3447006086173</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1"/>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
       <c r="K55" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>5.1004888302616003</v>
+      </c>
       <c r="N55" s="1" t="s">
         <v>140</v>
+      </c>
+      <c r="O55">
+        <v>51.110256237637607</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -2210,11 +2789,29 @@
       <c r="G56" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="H56">
+        <v>2.0310374476593201E-3</v>
+      </c>
+      <c r="I56">
+        <v>7.2790056109212249E-3</v>
+      </c>
+      <c r="J56">
+        <v>0.27902677319165758</v>
+      </c>
       <c r="K56" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="L56">
+        <v>274.1522481553086</v>
+      </c>
+      <c r="M56">
+        <v>264.09004062278109</v>
+      </c>
       <c r="N56" s="1" t="s">
         <v>142</v>
+      </c>
+      <c r="O56">
+        <v>63.635083776526223</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -2224,11 +2821,29 @@
       <c r="G57" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="H57">
+        <v>3.0094639889619579E-2</v>
+      </c>
+      <c r="I57">
+        <v>6.3624440242717517E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.47300439539920708</v>
+      </c>
       <c r="K57" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="L57">
+        <v>151.56168405536849</v>
+      </c>
+      <c r="M57">
+        <v>149.3447006086173</v>
+      </c>
       <c r="N57" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="O57">
+        <v>11266.576281758889</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>146</v>
@@ -2238,8 +2853,23 @@
       <c r="A58" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="L58">
+        <v>56.611414856055262</v>
+      </c>
+      <c r="M58">
+        <v>51.110256237637607</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -2249,8 +2879,23 @@
       <c r="G59" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="H59">
+        <v>351.52559449093189</v>
+      </c>
+      <c r="I59">
+        <v>366.0917438676816</v>
+      </c>
+      <c r="J59">
+        <v>0.96021175123246039</v>
+      </c>
       <c r="K59" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="L59">
+        <v>65.979149243884763</v>
+      </c>
+      <c r="M59">
+        <v>63.635083776526223</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>162</v>
@@ -2260,8 +2905,23 @@
       <c r="A60" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="L60">
+        <v>43.758238336543172</v>
+      </c>
+      <c r="M60">
+        <v>42.203623332066698</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>153</v>
@@ -2274,8 +2934,23 @@
       <c r="G61" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="H61">
+        <v>4550</v>
+      </c>
+      <c r="I61">
+        <v>4550</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="L61">
+        <v>10963.4165775603</v>
+      </c>
+      <c r="M61">
+        <v>10883.490952581989</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>157</v>
@@ -2288,8 +2963,23 @@
       <c r="G62" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="L62">
+        <v>10531.52039327304</v>
+      </c>
+      <c r="M62">
+        <v>10549.746672380101</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>159</v>
@@ -2302,8 +2992,23 @@
       <c r="G63" s="14" t="s">
         <v>172</v>
       </c>
+      <c r="H63">
+        <v>3617.2731845377562</v>
+      </c>
+      <c r="I63">
+        <v>3379.5120707495239</v>
+      </c>
+      <c r="J63">
+        <v>1.0703536808896501</v>
+      </c>
       <c r="K63" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="L63">
+        <v>431.89618428726482</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>163</v>
@@ -2318,6 +3023,12 @@
       </c>
       <c r="K64" s="1" t="s">
         <v>175</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>333.74428020188759</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>176</v>
@@ -2327,6 +3038,12 @@
       <c r="A65" s="1"/>
       <c r="K65" s="14" t="s">
         <v>177</v>
+      </c>
+      <c r="L65">
+        <v>11303.59417367547</v>
+      </c>
+      <c r="M65">
+        <v>11266.576281758889</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>178</v>
@@ -7242,7 +7959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8C5FE6-6219-4CCF-9CE0-A6C1964FD346}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:Q69"/>
     </sheetView>
   </sheetViews>
@@ -12103,8 +12820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E21DD-C523-4F36-86E4-642B6CA8A71F}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12115,7 +12832,7 @@
       </c>
       <c r="B1">
         <f>ABS(Kwak!B1-NewData!B1)/Kwak!B1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -12125,7 +12842,7 @@
       </c>
       <c r="E1">
         <f>ABS(Kwak!E1-NewData!E1)/Kwak!E1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -12167,7 +12884,7 @@
       </c>
       <c r="B2">
         <f>ABS(Kwak!B2-NewData!B2)/Kwak!B2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -12177,7 +12894,7 @@
       </c>
       <c r="E2">
         <f>ABS(Kwak!E2-NewData!E2)/Kwak!E2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>ABS(Kwak!G2-NewData!G2)/Kwak!G2*100</f>
@@ -12226,14 +12943,14 @@
       </c>
       <c r="B3">
         <f>ABS(Kwak!B3-NewData!B3)/Kwak!B3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3">
         <f>ABS(Kwak!E3-NewData!E3)/Kwak!E3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -12242,14 +12959,14 @@
       </c>
       <c r="B4">
         <f>ABS(Kwak!B4-NewData!B4)/Kwak!B4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
         <f>ABS(Kwak!E4-NewData!E4)/Kwak!E4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>ABS(Kwak!G4-NewData!G4)/Kwak!G4*100</f>
@@ -12298,14 +13015,14 @@
       </c>
       <c r="B5">
         <f>ABS(Kwak!B5-NewData!B5)/Kwak!B5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5">
         <f>ABS(Kwak!E5-NewData!E5)/Kwak!E5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -12314,14 +13031,14 @@
       </c>
       <c r="B6">
         <f>ABS(Kwak!B6-NewData!B6)/Kwak!B6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6">
         <f>ABS(Kwak!E6-NewData!E6)/Kwak!E6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>ABS(Kwak!G6-NewData!G6)/Kwak!G6*100</f>
@@ -12370,14 +13087,14 @@
       </c>
       <c r="B7">
         <f>ABS(Kwak!B7-NewData!B7)/Kwak!B7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
         <f>ABS(Kwak!E7-NewData!E7)/Kwak!E7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -12386,7 +13103,7 @@
       </c>
       <c r="B8">
         <f>ABS(Kwak!B8-NewData!B8)/Kwak!B8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -12396,7 +13113,7 @@
       </c>
       <c r="E8">
         <f>ABS(Kwak!E8-NewData!E8)/Kwak!E8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>ABS(Kwak!G8-NewData!G8)/Kwak!G8*100</f>
@@ -12445,7 +13162,7 @@
       </c>
       <c r="B9">
         <f>ABS(Kwak!B9-NewData!B9)/Kwak!B9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -12455,7 +13172,7 @@
       </c>
       <c r="E9">
         <f>ABS(Kwak!E9-NewData!E9)/Kwak!E9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -12464,7 +13181,7 @@
       </c>
       <c r="B10">
         <f>ABS(Kwak!B10-NewData!B10)/Kwak!B10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -12474,7 +13191,7 @@
       </c>
       <c r="E10">
         <f>ABS(Kwak!E10-NewData!E10)/Kwak!E10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>ABS(Kwak!G10-NewData!G10)/Kwak!G10*100</f>
@@ -12482,15 +13199,15 @@
       </c>
       <c r="H10">
         <f>ABS(Kwak!H10-NewData!H10)/Kwak!H10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>ABS(Kwak!I10-NewData!I10)/Kwak!I10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f>ABS(Kwak!J10-NewData!J10)/Kwak!J10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f>ABS(Kwak!K10-NewData!K10)/Kwak!K10*100</f>
@@ -12514,7 +13231,7 @@
       </c>
       <c r="P10">
         <f>ABS(Kwak!P10-NewData!P10)/Kwak!P10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -12523,7 +13240,7 @@
       </c>
       <c r="B11">
         <f>ABS(Kwak!B11-NewData!B11)/Kwak!B11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -12533,7 +13250,7 @@
       </c>
       <c r="E11">
         <f>ABS(Kwak!E11-NewData!E11)/Kwak!E11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -12542,14 +13259,14 @@
       </c>
       <c r="B12">
         <f>ABS(Kwak!B12-NewData!B12)/Kwak!B12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12">
         <f>ABS(Kwak!E12-NewData!E12)/Kwak!E12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>ABS(Kwak!G12-NewData!G12)/Kwak!G12*100</f>
@@ -12598,7 +13315,7 @@
       </c>
       <c r="B13">
         <f>ABS(Kwak!B13-NewData!B13)/Kwak!B13*100</f>
-        <v>100</v>
+        <v>1.7800306732869313E-7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -12608,7 +13325,7 @@
       </c>
       <c r="E13">
         <f>ABS(Kwak!E13-NewData!E13)/Kwak!E13*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -12617,7 +13334,7 @@
       </c>
       <c r="B14">
         <f>ABS(Kwak!B14-NewData!B14)/Kwak!B14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
@@ -12627,7 +13344,7 @@
       </c>
       <c r="E14">
         <f>ABS(Kwak!E14-NewData!E14)/Kwak!E14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -12679,7 +13396,7 @@
       </c>
       <c r="B15">
         <f>ABS(Kwak!B15-NewData!B15)/Kwak!B15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -12689,7 +13406,7 @@
       </c>
       <c r="E15">
         <f>ABS(Kwak!E15-NewData!E15)/Kwak!E15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
@@ -12701,7 +13418,7 @@
       </c>
       <c r="B16">
         <f>ABS(Kwak!B16-NewData!B16)/Kwak!B16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -12711,7 +13428,7 @@
       </c>
       <c r="E16">
         <f>ABS(Kwak!E16-NewData!E16)/Kwak!E16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
@@ -12763,7 +13480,7 @@
       </c>
       <c r="B17">
         <f>ABS(Kwak!B17-NewData!B17)/Kwak!B17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
@@ -12773,7 +13490,7 @@
       </c>
       <c r="E17">
         <f>ABS(Kwak!E17-NewData!E17)/Kwak!E17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -12793,7 +13510,7 @@
       </c>
       <c r="B18">
         <f>ABS(Kwak!B18-NewData!B18)/Kwak!B18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -12803,7 +13520,7 @@
       </c>
       <c r="E18">
         <f>ABS(Kwak!E18-NewData!E18)/Kwak!E18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -12813,7 +13530,7 @@
       </c>
       <c r="H18">
         <f>ABS(Kwak!H18-NewData!H18)/Kwak!H18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
@@ -12827,7 +13544,7 @@
       </c>
       <c r="L18">
         <f>ABS(Kwak!L18-NewData!L18)/Kwak!L18*100</f>
-        <v>100</v>
+        <v>1.2852892257630129E-14</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -12836,7 +13553,7 @@
       </c>
       <c r="B19">
         <f>ABS(Kwak!B19-NewData!B19)/Kwak!B19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
@@ -12846,7 +13563,7 @@
       </c>
       <c r="E19">
         <f>ABS(Kwak!E19-NewData!E19)/Kwak!E19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>41</v>
@@ -12856,7 +13573,7 @@
       </c>
       <c r="H19">
         <f>ABS(Kwak!H19-NewData!H19)/Kwak!H19*100</f>
-        <v>100</v>
+        <v>1.1973815723965286E-14</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>58</v>
@@ -12870,7 +13587,7 @@
       </c>
       <c r="L19">
         <f>ABS(Kwak!L19-NewData!L19)/Kwak!L19*100</f>
-        <v>100</v>
+        <v>1.5905454168817284E-13</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -12879,7 +13596,7 @@
       </c>
       <c r="B20">
         <f>ABS(Kwak!B20-NewData!B20)/Kwak!B20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
@@ -12889,7 +13606,7 @@
       </c>
       <c r="E20">
         <f>ABS(Kwak!E20-NewData!E20)/Kwak!E20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>27</v>
@@ -12899,7 +13616,7 @@
       </c>
       <c r="H20">
         <f>ABS(Kwak!H20-NewData!H20)/Kwak!H20*100</f>
-        <v>100</v>
+        <v>1.4667924261857477E-14</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>62</v>
@@ -12913,7 +13630,7 @@
       </c>
       <c r="L20">
         <f>ABS(Kwak!L20-NewData!L20)/Kwak!L20*100</f>
-        <v>100</v>
+        <v>1.5269236002064595E-13</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -12922,7 +13639,7 @@
       </c>
       <c r="B21">
         <f>ABS(Kwak!B21-NewData!B21)/Kwak!B21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
@@ -12932,7 +13649,7 @@
       </c>
       <c r="E21">
         <f>ABS(Kwak!E21-NewData!E21)/Kwak!E21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>27</v>
@@ -12942,21 +13659,21 @@
       </c>
       <c r="H21">
         <f>ABS(Kwak!H21-NewData!H21)/Kwak!H21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J21">
         <f>ABS(Kwak!J21-NewData!J21)/Kwak!J21*100</f>
-        <v>100</v>
+        <v>3.5446964880465662E-14</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="L21">
         <f>ABS(Kwak!L21-NewData!L21)/Kwak!L21*100</f>
-        <v>100</v>
+        <v>2.396511466779252E-14</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -12966,7 +13683,7 @@
       </c>
       <c r="B22">
         <f>ABS(Kwak!B22-NewData!B22)/Kwak!B22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -12976,7 +13693,7 @@
       </c>
       <c r="E22">
         <f>ABS(Kwak!E22-NewData!E22)/Kwak!E22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -12986,21 +13703,21 @@
       </c>
       <c r="H22">
         <f>ABS(Kwak!H22-NewData!H22)/Kwak!H22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J22">
         <f>ABS(Kwak!J22-NewData!J22)/Kwak!J22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L22">
         <f>ABS(Kwak!L22-NewData!L22)/Kwak!L22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1">
@@ -13009,7 +13726,7 @@
       </c>
       <c r="B23">
         <f>ABS(Kwak!B23-NewData!B23)/Kwak!B23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>52</v>
@@ -13019,7 +13736,7 @@
       </c>
       <c r="E23">
         <f>ABS(Kwak!E23-NewData!E23)/Kwak!E23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>27</v>
@@ -13029,21 +13746,21 @@
       </c>
       <c r="H23">
         <f>ABS(Kwak!H23-NewData!H23)/Kwak!H23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J23">
         <f>ABS(Kwak!J23-NewData!J23)/Kwak!J23*100</f>
-        <v>100</v>
+        <v>1.8366958375772709E-14</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L23">
         <f>ABS(Kwak!L23-NewData!L23)/Kwak!L23*100</f>
-        <v>100</v>
+        <v>3.4085419937680702E-14</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -13052,14 +13769,14 @@
       </c>
       <c r="H24">
         <f>ABS(Kwak!H24-NewData!H24)/Kwak!H24*100</f>
-        <v>100</v>
+        <v>3.5446964880465662E-14</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J24">
         <f>ABS(Kwak!J24-NewData!J24)/Kwak!J24*100</f>
-        <v>100</v>
+        <v>1.9703087592164349E-14</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
@@ -13068,14 +13785,14 @@
       </c>
       <c r="H25">
         <f>ABS(Kwak!H25-NewData!H25)/Kwak!H25*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J25">
         <f>ABS(Kwak!J25-NewData!J25)/Kwak!J25*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -13090,7 +13807,7 @@
       </c>
       <c r="H26">
         <f>ABS(Kwak!H26-NewData!H26)/Kwak!H26*100</f>
-        <v>100</v>
+        <v>1.8366958375772709E-14</v>
       </c>
       <c r="N26" s="36" t="s">
         <v>78</v>
@@ -13104,28 +13821,28 @@
       </c>
       <c r="B27">
         <f>ABS(Kwak!B27-NewData!B27)/Kwak!B27*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H27">
         <f>ABS(Kwak!H27-NewData!H27)/Kwak!H27*100</f>
-        <v>100</v>
+        <v>1.9703087592164349E-14</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J27">
         <f>ABS(Kwak!J27-NewData!J27)/Kwak!J27*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O27">
         <f>ABS(Kwak!O27-NewData!O27)/Kwak!O27*100</f>
-        <v>100</v>
+        <v>1.1633008059163171E-14</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -13134,28 +13851,28 @@
       </c>
       <c r="B28">
         <f>ABS(Kwak!B28-NewData!B28)/Kwak!B28*100</f>
-        <v>100</v>
+        <v>1.9754582728667657E-13</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H28">
         <f>ABS(Kwak!H28-NewData!H28)/Kwak!H28*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J28">
         <f>ABS(Kwak!J28-NewData!J28)/Kwak!J28*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O28">
         <f>ABS(Kwak!O28-NewData!O28)/Kwak!O28*100</f>
-        <v>100</v>
+        <v>1.5634383304880895E-3</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -13164,28 +13881,28 @@
       </c>
       <c r="B29">
         <f>ABS(Kwak!B29-NewData!B29)/Kwak!B29*100</f>
-        <v>100</v>
+        <v>2.3958872632077117E-14</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H29">
         <f>ABS(Kwak!H29-NewData!H29)/Kwak!H29*100</f>
-        <v>100</v>
+        <v>3.4085419937680702E-14</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J29">
         <f>ABS(Kwak!J29-NewData!J29)/Kwak!J29*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="O29">
         <f>ABS(Kwak!O29-NewData!O29)/Kwak!O29*100</f>
-        <v>100</v>
+        <v>7.4227592439211486E-4</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -13194,28 +13911,28 @@
       </c>
       <c r="B30">
         <f>ABS(Kwak!B30-NewData!B30)/Kwak!B30*100</f>
-        <v>100</v>
+        <v>2.6977695580841974E-14</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H30">
         <f>ABS(Kwak!H30-NewData!H30)/Kwak!H30*100</f>
-        <v>100</v>
+        <v>1.2852892257630129E-14</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J30">
         <f>ABS(Kwak!J30-NewData!J30)/Kwak!J30*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O30">
         <f>ABS(Kwak!O30-NewData!O30)/Kwak!O30*100</f>
-        <v>100</v>
+        <v>7.4227592437005785E-4</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1">
@@ -13224,7 +13941,7 @@
       </c>
       <c r="B31">
         <f>ABS(Kwak!B31-NewData!B31)/Kwak!B31*100</f>
-        <v>100</v>
+        <v>2.6347740694318402E-14</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>93</v>
@@ -13234,7 +13951,7 @@
       </c>
       <c r="O31">
         <f>ABS(Kwak!O31-NewData!O31)/Kwak!O31*100</f>
-        <v>100</v>
+        <v>7.4227592440704432E-4</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -13243,7 +13960,7 @@
       </c>
       <c r="B32">
         <f>ABS(Kwak!B32-NewData!B32)/Kwak!B32*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>96</v>
@@ -13258,7 +13975,7 @@
       </c>
       <c r="O32">
         <f>ABS(Kwak!O32-NewData!O32)/Kwak!O32*100</f>
-        <v>100</v>
+        <v>2.427957881453555E-14</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -13267,28 +13984,28 @@
       </c>
       <c r="B33">
         <f>ABS(Kwak!B33-NewData!B33)/Kwak!B33*100</f>
-        <v>100</v>
+        <v>1.7800312201021347E-7</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H33">
         <f>ABS(Kwak!H33-NewData!H33)/Kwak!H33*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J33">
         <f>ABS(Kwak!J33-NewData!J33)/Kwak!J33*100</f>
-        <v>100</v>
+        <v>2.1021555646409608E-14</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O33">
         <f>ABS(Kwak!O33-NewData!O33)/Kwak!O33*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -13297,28 +14014,28 @@
       </c>
       <c r="B34">
         <f>ABS(Kwak!B34-NewData!B34)/Kwak!B34*100</f>
-        <v>100</v>
+        <v>1.6467240683747398E-14</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H34">
         <f>ABS(Kwak!H34-NewData!H34)/Kwak!H34*100</f>
-        <v>100</v>
+        <v>1.1973815723965286E-14</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="J34">
         <f>ABS(Kwak!J34-NewData!J34)/Kwak!J34*100</f>
-        <v>100</v>
+        <v>4.2870128966669888E-14</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O34">
         <f>ABS(Kwak!O34-NewData!O34)/Kwak!O34*100</f>
-        <v>100</v>
+        <v>2.6700423538133282E-14</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -13327,14 +14044,14 @@
       </c>
       <c r="B35">
         <f>ABS(Kwak!B35-NewData!B35)/Kwak!B35*100</f>
-        <v>100</v>
+        <v>3.4974867888463956E-14</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H35">
         <f>ABS(Kwak!H35-NewData!H35)/Kwak!H35*100</f>
-        <v>100</v>
+        <v>1.4667924261857477E-14</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>102</v>
@@ -13347,7 +14064,7 @@
       </c>
       <c r="O35">
         <f>ABS(Kwak!O35-NewData!O35)/Kwak!O35*100</f>
-        <v>100</v>
+        <v>1.1679153159787907E-14</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -13356,28 +14073,28 @@
       </c>
       <c r="B36">
         <f>ABS(Kwak!B36-NewData!B36)/Kwak!B36*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36">
         <f>ABS(Kwak!H36-NewData!H36)/Kwak!H36*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J36">
         <f>ABS(Kwak!J36-NewData!J36)/Kwak!J36*100</f>
-        <v>100</v>
+        <v>3.0016582925623272E-2</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O36">
         <f>ABS(Kwak!O36-NewData!O36)/Kwak!O36*100</f>
-        <v>100</v>
+        <v>1.7800313344459644E-7</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -13386,28 +14103,28 @@
       </c>
       <c r="B37">
         <f>ABS(Kwak!B37-NewData!B37)/Kwak!B37*100</f>
-        <v>100</v>
+        <v>6.9348035667820296E-6</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H37">
         <f>ABS(Kwak!H37-NewData!H37)/Kwak!H37*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J37">
         <f>ABS(Kwak!J37-NewData!J37)/Kwak!J37*100</f>
-        <v>100</v>
+        <v>1.1973815723965286E-14</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O37">
         <f>ABS(Kwak!O37-NewData!O37)/Kwak!O37*100</f>
-        <v>100</v>
+        <v>5.1221486618458473E-14</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -13416,28 +14133,28 @@
       </c>
       <c r="B38">
         <f>ABS(Kwak!B38-NewData!B38)/Kwak!B38*100</f>
-        <v>100</v>
+        <v>6.9348036231369714E-6</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H38">
         <f>ABS(Kwak!H38-NewData!H38)/Kwak!H38*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J38">
         <f>ABS(Kwak!J38-NewData!J38)/Kwak!J38*100</f>
-        <v>100</v>
+        <v>1.5634383304938919E-3</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>101</v>
       </c>
       <c r="O38">
         <f>ABS(Kwak!O38-NewData!O38)/Kwak!O38*100</f>
-        <v>100</v>
+        <v>2.365235774567777E-14</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -13452,21 +14169,21 @@
       </c>
       <c r="H39">
         <f>ABS(Kwak!H39-NewData!H39)/Kwak!H39*100</f>
-        <v>100</v>
+        <v>1.1973815723965286E-14</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J39">
         <f>ABS(Kwak!J39-NewData!J39)/Kwak!J39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39">
         <f>ABS(Kwak!O39-NewData!O39)/Kwak!O39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -13481,21 +14198,21 @@
       </c>
       <c r="H40">
         <f>ABS(Kwak!H40-NewData!H40)/Kwak!H40*100</f>
-        <v>100</v>
+        <v>1.5634383304938919E-3</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J40">
         <f>ABS(Kwak!J40-NewData!J40)/Kwak!J40*100</f>
-        <v>100</v>
+        <v>1.5634383304816547E-3</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O40">
         <f>ABS(Kwak!O40-NewData!O40)/Kwak!O40*100</f>
-        <v>100</v>
+        <v>6.9348035307641033E-6</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -13507,21 +14224,21 @@
       </c>
       <c r="H41">
         <f>ABS(Kwak!H41-NewData!H41)/Kwak!H41*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J41">
         <f>ABS(Kwak!J41-NewData!J41)/Kwak!J41*100</f>
-        <v>100</v>
+        <v>7.4227592441435521E-4</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="O41">
         <f>ABS(Kwak!O41-NewData!O41)/Kwak!O41*100</f>
-        <v>100</v>
+        <v>6.9348035709190012E-6</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -13530,21 +14247,21 @@
       </c>
       <c r="B42">
         <f>ABS(Kwak!B42-NewData!B42)/Kwak!B42*100</f>
-        <v>100</v>
+        <v>7.3835474333841019E-3</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42">
         <f>ABS(Kwak!H42-NewData!H42)/Kwak!H42*100</f>
-        <v>100</v>
+        <v>1.5634383304816547E-3</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J42">
         <f>ABS(Kwak!J42-NewData!J42)/Kwak!J42*100</f>
-        <v>100</v>
+        <v>7.4227592438090356E-4</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>108</v>
@@ -13565,14 +14282,14 @@
       </c>
       <c r="H43">
         <f>ABS(Kwak!H43-NewData!H43)/Kwak!H43*100</f>
-        <v>100</v>
+        <v>7.4227592441435521E-4</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>116</v>
       </c>
       <c r="J43">
         <f>ABS(Kwak!J43-NewData!J43)/Kwak!J43*100</f>
-        <v>100</v>
+        <v>7.4227592439010616E-4</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>110</v>
@@ -13593,14 +14310,14 @@
       </c>
       <c r="H44">
         <f>ABS(Kwak!H44-NewData!H44)/Kwak!H44*100</f>
-        <v>100</v>
+        <v>3.00165829255232E-2</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J44">
         <f>ABS(Kwak!J44-NewData!J44)/Kwak!J44*100</f>
-        <v>100</v>
+        <v>2.7809068377429455E-2</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>120</v>
@@ -13618,14 +14335,14 @@
       </c>
       <c r="H45">
         <f>ABS(Kwak!H45-NewData!H45)/Kwak!H45*100</f>
-        <v>100</v>
+        <v>1.7006288999255045E-14</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="O45">
         <f>ABS(Kwak!O45-NewData!O45)/Kwak!O45*100</f>
-        <v>100</v>
+        <v>7.3231577836645355E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1">
@@ -13634,7 +14351,7 @@
       </c>
       <c r="B46">
         <f>ABS(Kwak!B46-NewData!B46)/Kwak!B46*100</f>
-        <v>100</v>
+        <v>5.0714518586157768E-3</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>93</v>
@@ -13652,7 +14369,7 @@
       </c>
       <c r="B47">
         <f>ABS(Kwak!B47-NewData!B47)/Kwak!B47*100</f>
-        <v>100</v>
+        <v>1.6249560531370118E-3</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>125</v>
@@ -13671,7 +14388,7 @@
       </c>
       <c r="B48">
         <f>ABS(Kwak!B48-NewData!B48)/Kwak!B48*100</f>
-        <v>100</v>
+        <v>1.4252502679945862E-3</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
@@ -13696,7 +14413,7 @@
       </c>
       <c r="B49">
         <f>ABS(Kwak!B49-NewData!B49)/Kwak!B49*100</f>
-        <v>100</v>
+        <v>1.1232529115660203E-3</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>130</v>
@@ -13722,7 +14439,7 @@
       </c>
       <c r="O49">
         <f>ABS(Kwak!O49-NewData!O49)/Kwak!O49*100</f>
-        <v>100</v>
+        <v>5.3913184695928229E-3</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -13731,7 +14448,7 @@
       </c>
       <c r="B50">
         <f>ABS(Kwak!B50-NewData!B50)/Kwak!B50*100</f>
-        <v>100</v>
+        <v>9.9076877195146645E-4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
@@ -13745,18 +14462,18 @@
       </c>
       <c r="L50">
         <f>ABS(Kwak!L50-NewData!L50)/Kwak!L50*100</f>
-        <v>100</v>
+        <v>1.5954983556019165E-14</v>
       </c>
       <c r="M50">
         <f>ABS(Kwak!M50-NewData!M50)/Kwak!M50*100</f>
-        <v>100</v>
+        <v>7.6687591220266495E-4</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O50">
         <f>ABS(Kwak!O50-NewData!O50)/Kwak!O50*100</f>
-        <v>100</v>
+        <v>1.6060350904811833E-3</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -13765,7 +14482,7 @@
       </c>
       <c r="B51">
         <f>ABS(Kwak!B51-NewData!B51)/Kwak!B51*100</f>
-        <v>100</v>
+        <v>1.5185950970761546E-3</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>89</v>
@@ -13775,14 +14492,14 @@
       </c>
       <c r="L51">
         <f>ABS(Kwak!L51-NewData!L51)/Kwak!L51*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O51">
         <f>ABS(Kwak!O51-NewData!O51)/Kwak!O51*100</f>
-        <v>100</v>
+        <v>1.4094454448508652E-3</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -13791,7 +14508,7 @@
       </c>
       <c r="B52">
         <f>ABS(Kwak!B52-NewData!B52)/Kwak!B52*100</f>
-        <v>100</v>
+        <v>1.0528865597808068E-3</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>141</v>
@@ -13801,14 +14518,14 @@
       </c>
       <c r="L52">
         <f>ABS(Kwak!L52-NewData!L52)/Kwak!L52*100</f>
-        <v>100</v>
+        <v>1.9754582728667657E-13</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O52">
         <f>ABS(Kwak!O52-NewData!O52)/Kwak!O52*100</f>
-        <v>100</v>
+        <v>1.1591128442126743E-3</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -13817,7 +14534,7 @@
       </c>
       <c r="B53">
         <f>ABS(Kwak!B53-NewData!B53)/Kwak!B53*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>143</v>
@@ -13827,14 +14544,14 @@
       </c>
       <c r="M53">
         <f>ABS(Kwak!M53-NewData!M53)/Kwak!M53*100</f>
-        <v>100</v>
+        <v>8.5447452237218157E-4</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>134</v>
       </c>
       <c r="O53">
         <f>ABS(Kwak!O53-NewData!O53)/Kwak!O53*100</f>
-        <v>100</v>
+        <v>1.0259665167599173E-3</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -13843,7 +14560,7 @@
       </c>
       <c r="B54">
         <f>ABS(Kwak!B54-NewData!B54)/Kwak!B54*100</f>
-        <v>100</v>
+        <v>2.5633828172899477E-5</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>146</v>
@@ -13856,14 +14573,14 @@
       </c>
       <c r="M54">
         <f>ABS(Kwak!M54-NewData!M54)/Kwak!M54*100</f>
-        <v>100</v>
+        <v>7.4227592439211486E-4</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>138</v>
       </c>
       <c r="O54">
         <f>ABS(Kwak!O54-NewData!O54)/Kwak!O54*100</f>
-        <v>100</v>
+        <v>1.5013614261441129E-3</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -13872,14 +14589,14 @@
       </c>
       <c r="M55">
         <f>ABS(Kwak!M55-NewData!M55)/Kwak!M55*100</f>
-        <v>100</v>
+        <v>7.4227592437005785E-4</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O55">
         <f>ABS(Kwak!O55-NewData!O55)/Kwak!O55*100</f>
-        <v>100</v>
+        <v>1.0885086764204853E-3</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -13894,18 +14611,18 @@
       </c>
       <c r="L56">
         <f>ABS(Kwak!L56-NewData!L56)/Kwak!L56*100</f>
-        <v>100</v>
+        <v>1.0569498153360822E-3</v>
       </c>
       <c r="M56">
         <f>ABS(Kwak!M56-NewData!M56)/Kwak!M56*100</f>
-        <v>100</v>
+        <v>1.0596890479399131E-3</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="O56">
         <f>ABS(Kwak!O56-NewData!O56)/Kwak!O56*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -13920,18 +14637,18 @@
       </c>
       <c r="L57">
         <f>ABS(Kwak!L57-NewData!L57)/Kwak!L57*100</f>
-        <v>100</v>
+        <v>1.5185950970761546E-3</v>
       </c>
       <c r="M57">
         <f>ABS(Kwak!M57-NewData!M57)/Kwak!M57*100</f>
-        <v>100</v>
+        <v>1.5013614261441129E-3</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>156</v>
       </c>
       <c r="O57">
         <f>ABS(Kwak!O57-NewData!O57)/Kwak!O57*100</f>
-        <v>100</v>
+        <v>2.3768948332653033E-6</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>146</v>
@@ -13946,11 +14663,11 @@
       </c>
       <c r="L58">
         <f>ABS(Kwak!L58-NewData!L58)/Kwak!L58*100</f>
-        <v>100</v>
+        <v>1.0528865597808068E-3</v>
       </c>
       <c r="M58">
         <f>ABS(Kwak!M58-NewData!M58)/Kwak!M58*100</f>
-        <v>100</v>
+        <v>1.0885086764204853E-3</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -13965,11 +14682,11 @@
       </c>
       <c r="L59">
         <f>ABS(Kwak!L59-NewData!L59)/Kwak!L59*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <f>ABS(Kwak!M59-NewData!M59)/Kwak!M59*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>162</v>
@@ -13984,11 +14701,11 @@
       </c>
       <c r="L60">
         <f>ABS(Kwak!L60-NewData!L60)/Kwak!L60*100</f>
-        <v>100</v>
+        <v>1.7800312201021347E-7</v>
       </c>
       <c r="M60">
         <f>ABS(Kwak!M60-NewData!M60)/Kwak!M60*100</f>
-        <v>100</v>
+        <v>1.7800313344459644E-7</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>153</v>
@@ -14006,11 +14723,11 @@
       </c>
       <c r="L61">
         <f>ABS(Kwak!L61-NewData!L61)/Kwak!L61*100</f>
-        <v>100</v>
+        <v>3.3182893136961097E-14</v>
       </c>
       <c r="M61">
         <f>ABS(Kwak!M61-NewData!M61)/Kwak!M61*100</f>
-        <v>100</v>
+        <v>2.2762193480710582E-5</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>157</v>
@@ -14028,11 +14745,11 @@
       </c>
       <c r="L62">
         <f>ABS(Kwak!L62-NewData!L62)/Kwak!L62*100</f>
-        <v>100</v>
+        <v>1.7271859481065314E-14</v>
       </c>
       <c r="M62">
         <f>ABS(Kwak!M62-NewData!M62)/Kwak!M62*100</f>
-        <v>100</v>
+        <v>3.4484039475717161E-14</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>159</v>
@@ -14050,7 +14767,7 @@
       </c>
       <c r="L63">
         <f>ABS(Kwak!L63-NewData!L63)/Kwak!L63*100</f>
-        <v>100</v>
+        <v>1.3161361671813254E-14</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>163</v>
@@ -14068,7 +14785,7 @@
       </c>
       <c r="M64">
         <f>ABS(Kwak!M64-NewData!M64)/Kwak!M64*100</f>
-        <v>100</v>
+        <v>7.4227592440704432E-4</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>176</v>
@@ -14080,11 +14797,11 @@
       </c>
       <c r="L65">
         <f>ABS(Kwak!L65-NewData!L65)/Kwak!L65*100</f>
-        <v>100</v>
+        <v>2.5633828172899477E-5</v>
       </c>
       <c r="M65">
         <f>ABS(Kwak!M65-NewData!M65)/Kwak!M65*100</f>
-        <v>100</v>
+        <v>2.3768948171202979E-6</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>178</v>
@@ -14185,7 +14902,7 @@
       </c>
       <c r="B1">
         <f>ABS(NewBase!B1-NewData!B1)/NewBase!B1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -14195,7 +14912,7 @@
       </c>
       <c r="E1">
         <f>ABS(NewBase!E1-NewData!E1)/NewBase!E1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -14237,7 +14954,7 @@
       </c>
       <c r="B2">
         <f>ABS(NewBase!B2-NewData!B2)/NewBase!B2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -14247,7 +14964,7 @@
       </c>
       <c r="E2">
         <f>ABS(NewBase!E2-NewData!E2)/NewBase!E2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -14256,14 +14973,14 @@
       </c>
       <c r="B3">
         <f>ABS(NewBase!B3-NewData!B3)/NewBase!B3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3">
         <f>ABS(NewBase!E3-NewData!E3)/NewBase!E3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -14272,14 +14989,14 @@
       </c>
       <c r="B4">
         <f>ABS(NewBase!B4-NewData!B4)/NewBase!B4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
         <f>ABS(NewBase!E4-NewData!E4)/NewBase!E4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -14288,14 +15005,14 @@
       </c>
       <c r="B5">
         <f>ABS(NewBase!B5-NewData!B5)/NewBase!B5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5">
         <f>ABS(NewBase!E5-NewData!E5)/NewBase!E5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -14304,14 +15021,14 @@
       </c>
       <c r="B6">
         <f>ABS(NewBase!B6-NewData!B6)/NewBase!B6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6">
         <f>ABS(NewBase!E6-NewData!E6)/NewBase!E6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -14320,14 +15037,14 @@
       </c>
       <c r="B7">
         <f>ABS(NewBase!B7-NewData!B7)/NewBase!B7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
         <f>ABS(NewBase!E7-NewData!E7)/NewBase!E7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -14336,7 +15053,7 @@
       </c>
       <c r="B8">
         <f>ABS(NewBase!B8-NewData!B8)/NewBase!B8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -14346,7 +15063,7 @@
       </c>
       <c r="E8">
         <f>ABS(NewBase!E8-NewData!E8)/NewBase!E8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -14355,7 +15072,7 @@
       </c>
       <c r="B9">
         <f>ABS(NewBase!B9-NewData!B9)/NewBase!B9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -14365,7 +15082,7 @@
       </c>
       <c r="E9">
         <f>ABS(NewBase!E9-NewData!E9)/NewBase!E9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -14374,7 +15091,7 @@
       </c>
       <c r="B10">
         <f>ABS(NewBase!B10-NewData!B10)/NewBase!B10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -14384,23 +15101,23 @@
       </c>
       <c r="E10">
         <f>ABS(NewBase!E10-NewData!E10)/NewBase!E10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f>ABS(NewBase!H10-NewData!H10)/NewBase!H10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>ABS(NewBase!I10-NewData!I10)/NewBase!I10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f>ABS(NewBase!J10-NewData!J10)/NewBase!J10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <f>ABS(NewBase!P10-NewData!P10)/NewBase!P10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -14409,7 +15126,7 @@
       </c>
       <c r="B11">
         <f>ABS(NewBase!B11-NewData!B11)/NewBase!B11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -14419,7 +15136,7 @@
       </c>
       <c r="E11">
         <f>ABS(NewBase!E11-NewData!E11)/NewBase!E11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -14428,14 +15145,14 @@
       </c>
       <c r="B12">
         <f>ABS(NewBase!B12-NewData!B12)/NewBase!B12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12">
         <f>ABS(NewBase!E12-NewData!E12)/NewBase!E12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -14444,7 +15161,7 @@
       </c>
       <c r="B13">
         <f>ABS(NewBase!B13-NewData!B13)/NewBase!B13*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -14454,7 +15171,7 @@
       </c>
       <c r="E13">
         <f>ABS(NewBase!E13-NewData!E13)/NewBase!E13*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -14463,7 +15180,7 @@
       </c>
       <c r="B14">
         <f>ABS(NewBase!B14-NewData!B14)/NewBase!B14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
@@ -14473,7 +15190,7 @@
       </c>
       <c r="E14">
         <f>ABS(NewBase!E14-NewData!E14)/NewBase!E14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -14485,7 +15202,7 @@
       </c>
       <c r="B15">
         <f>ABS(NewBase!B15-NewData!B15)/NewBase!B15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -14495,7 +15212,7 @@
       </c>
       <c r="E15">
         <f>ABS(NewBase!E15-NewData!E15)/NewBase!E15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
@@ -14507,7 +15224,7 @@
       </c>
       <c r="B16">
         <f>ABS(NewBase!B16-NewData!B16)/NewBase!B16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -14517,7 +15234,7 @@
       </c>
       <c r="E16">
         <f>ABS(NewBase!E16-NewData!E16)/NewBase!E16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
@@ -14529,7 +15246,7 @@
       </c>
       <c r="B17">
         <f>ABS(NewBase!B17-NewData!B17)/NewBase!B17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
@@ -14539,7 +15256,7 @@
       </c>
       <c r="E17">
         <f>ABS(NewBase!E17-NewData!E17)/NewBase!E17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -14559,7 +15276,7 @@
       </c>
       <c r="B18">
         <f>ABS(NewBase!B18-NewData!B18)/NewBase!B18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -14569,7 +15286,7 @@
       </c>
       <c r="E18">
         <f>ABS(NewBase!E18-NewData!E18)/NewBase!E18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -14579,7 +15296,7 @@
       </c>
       <c r="H18">
         <f>ABS(NewBase!H18-NewData!H18)/NewBase!H18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
@@ -14593,7 +15310,7 @@
       </c>
       <c r="L18">
         <f>ABS(NewBase!L18-NewData!L18)/NewBase!L18*100</f>
-        <v>100</v>
+        <v>0.71095815348163216</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -14602,7 +15319,7 @@
       </c>
       <c r="B19">
         <f>ABS(NewBase!B19-NewData!B19)/NewBase!B19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
@@ -14612,7 +15329,7 @@
       </c>
       <c r="E19">
         <f>ABS(NewBase!E19-NewData!E19)/NewBase!E19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>41</v>
@@ -14622,7 +15339,7 @@
       </c>
       <c r="H19">
         <f>ABS(NewBase!H19-NewData!H19)/NewBase!H19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>58</v>
@@ -14636,7 +15353,7 @@
       </c>
       <c r="L19">
         <f>ABS(NewBase!L19-NewData!L19)/NewBase!L19*100</f>
-        <v>100</v>
+        <v>0.71095815348166969</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -14645,7 +15362,7 @@
       </c>
       <c r="B20">
         <f>ABS(NewBase!B20-NewData!B20)/NewBase!B20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
@@ -14655,7 +15372,7 @@
       </c>
       <c r="E20">
         <f>ABS(NewBase!E20-NewData!E20)/NewBase!E20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>27</v>
@@ -14665,7 +15382,7 @@
       </c>
       <c r="H20">
         <f>ABS(NewBase!H20-NewData!H20)/NewBase!H20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>62</v>
@@ -14679,7 +15396,7 @@
       </c>
       <c r="L20">
         <f>ABS(NewBase!L20-NewData!L20)/NewBase!L20*100</f>
-        <v>100</v>
+        <v>0.71095815348166602</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -14688,7 +15405,7 @@
       </c>
       <c r="B21">
         <f>ABS(NewBase!B21-NewData!B21)/NewBase!B21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
@@ -14698,7 +15415,7 @@
       </c>
       <c r="E21">
         <f>ABS(NewBase!E21-NewData!E21)/NewBase!E21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>27</v>
@@ -14708,21 +15425,21 @@
       </c>
       <c r="H21">
         <f>ABS(NewBase!H21-NewData!H21)/NewBase!H21*100</f>
-        <v>100</v>
+        <v>1.0101010101009877</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J21">
         <f>ABS(NewBase!J21-NewData!J21)/NewBase!J21*100</f>
-        <v>100</v>
+        <v>0.93326410410097482</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="L21">
         <f>ABS(NewBase!L21-NewData!L21)/NewBase!L21*100</f>
-        <v>100</v>
+        <v>0.93641132287364637</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -14732,7 +15449,7 @@
       </c>
       <c r="B22">
         <f>ABS(NewBase!B22-NewData!B22)/NewBase!B22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -14742,7 +15459,7 @@
       </c>
       <c r="E22">
         <f>ABS(NewBase!E22-NewData!E22)/NewBase!E22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -14752,21 +15469,21 @@
       </c>
       <c r="H22">
         <f>ABS(NewBase!H22-NewData!H22)/NewBase!H22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J22">
         <f>ABS(NewBase!J22-NewData!J22)/NewBase!J22*100</f>
-        <v>100</v>
+        <v>0.47183325340676024</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L22">
         <f>ABS(NewBase!L22-NewData!L22)/NewBase!L22*100</f>
-        <v>100</v>
+        <v>0.44591434226669469</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1">
@@ -14775,7 +15492,7 @@
       </c>
       <c r="B23">
         <f>ABS(NewBase!B23-NewData!B23)/NewBase!B23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>52</v>
@@ -14785,7 +15502,7 @@
       </c>
       <c r="E23">
         <f>ABS(NewBase!E23-NewData!E23)/NewBase!E23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>27</v>
@@ -14795,21 +15512,21 @@
       </c>
       <c r="H23">
         <f>ABS(NewBase!H23-NewData!H23)/NewBase!H23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J23">
         <f>ABS(NewBase!J23-NewData!J23)/NewBase!J23*100</f>
-        <v>100</v>
+        <v>0.93326410410095295</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L23">
         <f>ABS(NewBase!L23-NewData!L23)/NewBase!L23*100</f>
-        <v>100</v>
+        <v>0.79423828501658067</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -14818,14 +15535,14 @@
       </c>
       <c r="H24">
         <f>ABS(NewBase!H24-NewData!H24)/NewBase!H24*100</f>
-        <v>100</v>
+        <v>0.93326410410097482</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J24">
         <f>ABS(NewBase!J24-NewData!J24)/NewBase!J24*100</f>
-        <v>100</v>
+        <v>0.47183325340678761</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
@@ -14834,14 +15551,14 @@
       </c>
       <c r="H25">
         <f>ABS(NewBase!H25-NewData!H25)/NewBase!H25*100</f>
-        <v>100</v>
+        <v>0.47183325340676024</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J25">
         <f>ABS(NewBase!J25-NewData!J25)/NewBase!J25*100</f>
-        <v>100</v>
+        <v>0.71011803211395508</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -14856,7 +15573,7 @@
       </c>
       <c r="H26">
         <f>ABS(NewBase!H26-NewData!H26)/NewBase!H26*100</f>
-        <v>100</v>
+        <v>0.93326410410095295</v>
       </c>
       <c r="N26" s="36" t="s">
         <v>78</v>
@@ -14870,28 +15587,28 @@
       </c>
       <c r="B27">
         <f>ABS(NewBase!B27-NewData!B27)/NewBase!B27*100</f>
-        <v>100</v>
+        <v>0.71011803211394908</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H27">
         <f>ABS(NewBase!H27-NewData!H27)/NewBase!H27*100</f>
-        <v>100</v>
+        <v>0.47183325340678761</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J27">
         <f>ABS(NewBase!J27-NewData!J27)/NewBase!J27*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O27">
         <f>ABS(NewBase!O27-NewData!O27)/NewBase!O27*100</f>
-        <v>100</v>
+        <v>3.4899024177489507E-14</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -14900,28 +15617,28 @@
       </c>
       <c r="B28">
         <f>ABS(NewBase!B28-NewData!B28)/NewBase!B28*100</f>
-        <v>100</v>
+        <v>0.71095815348167646</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H28">
         <f>ABS(NewBase!H28-NewData!H28)/NewBase!H28*100</f>
-        <v>100</v>
+        <v>0.71011803211395508</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J28">
         <f>ABS(NewBase!J28-NewData!J28)/NewBase!J28*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O28">
         <f>ABS(NewBase!O28-NewData!O28)/NewBase!O28*100</f>
-        <v>100</v>
+        <v>1.9224703517868469</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -14930,28 +15647,28 @@
       </c>
       <c r="B29">
         <f>ABS(NewBase!B29-NewData!B29)/NewBase!B29*100</f>
-        <v>100</v>
+        <v>0.93326410410097482</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H29">
         <f>ABS(NewBase!H29-NewData!H29)/NewBase!H29*100</f>
-        <v>100</v>
+        <v>0.79423828501658067</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J29">
         <f>ABS(NewBase!J29-NewData!J29)/NewBase!J29*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="O29">
         <f>ABS(NewBase!O29-NewData!O29)/NewBase!O29*100</f>
-        <v>100</v>
+        <v>0.92203680117114617</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -14960,28 +15677,28 @@
       </c>
       <c r="B30">
         <f>ABS(NewBase!B30-NewData!B30)/NewBase!B30*100</f>
-        <v>100</v>
+        <v>0.4718332534068061</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H30">
         <f>ABS(NewBase!H30-NewData!H30)/NewBase!H30*100</f>
-        <v>100</v>
+        <v>0.71095815348163216</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J30">
         <f>ABS(NewBase!J30-NewData!J30)/NewBase!J30*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O30">
         <f>ABS(NewBase!O30-NewData!O30)/NewBase!O30*100</f>
-        <v>100</v>
+        <v>0.92203680117113329</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1">
@@ -14990,7 +15707,7 @@
       </c>
       <c r="B31">
         <f>ABS(NewBase!B31-NewData!B31)/NewBase!B31*100</f>
-        <v>100</v>
+        <v>0.93326410410097438</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>93</v>
@@ -15000,7 +15717,7 @@
       </c>
       <c r="O31">
         <f>ABS(NewBase!O31-NewData!O31)/NewBase!O31*100</f>
-        <v>100</v>
+        <v>0.92203680117114806</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -15009,7 +15726,7 @@
       </c>
       <c r="B32">
         <f>ABS(NewBase!B32-NewData!B32)/NewBase!B32*100</f>
-        <v>100</v>
+        <v>0.47183325340676213</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>96</v>
@@ -15024,7 +15741,7 @@
       </c>
       <c r="O32">
         <f>ABS(NewBase!O32-NewData!O32)/NewBase!O32*100</f>
-        <v>100</v>
+        <v>1.2139789407267778E-14</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -15033,28 +15750,28 @@
       </c>
       <c r="B33">
         <f>ABS(NewBase!B33-NewData!B33)/NewBase!B33*100</f>
-        <v>100</v>
+        <v>0.80370122092785679</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H33">
         <f>ABS(NewBase!H33-NewData!H33)/NewBase!H33*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J33">
         <f>ABS(NewBase!J33-NewData!J33)/NewBase!J33*100</f>
-        <v>100</v>
+        <v>26.674271832873963</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O33">
         <f>ABS(NewBase!O33-NewData!O33)/NewBase!O33*100</f>
-        <v>100</v>
+        <v>2.9742484047806046E-14</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -15063,28 +15780,28 @@
       </c>
       <c r="B34">
         <f>ABS(NewBase!B34-NewData!B34)/NewBase!B34*100</f>
-        <v>100</v>
+        <v>0.80370140036157489</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H34">
         <f>ABS(NewBase!H34-NewData!H34)/NewBase!H34*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="J34">
         <f>ABS(NewBase!J34-NewData!J34)/NewBase!J34*100</f>
-        <v>100</v>
+        <v>26.674271832873991</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O34">
         <f>ABS(NewBase!O34-NewData!O34)/NewBase!O34*100</f>
-        <v>100</v>
+        <v>1.3350211769066644E-14</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -15093,14 +15810,14 @@
       </c>
       <c r="B35">
         <f>ABS(NewBase!B35-NewData!B35)/NewBase!B35*100</f>
-        <v>100</v>
+        <v>0.92752416671258786</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H35">
         <f>ABS(NewBase!H35-NewData!H35)/NewBase!H35*100</f>
-        <v>100</v>
+        <v>1.4667924261857477E-14</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>102</v>
@@ -15113,7 +15830,7 @@
       </c>
       <c r="O35">
         <f>ABS(NewBase!O35-NewData!O35)/NewBase!O35*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -15122,28 +15839,28 @@
       </c>
       <c r="B36">
         <f>ABS(NewBase!B36-NewData!B36)/NewBase!B36*100</f>
-        <v>100</v>
+        <v>0.47183325340675425</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36">
         <f>ABS(NewBase!H36-NewData!H36)/NewBase!H36*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J36">
         <f>ABS(NewBase!J36-NewData!J36)/NewBase!J36*100</f>
-        <v>100</v>
+        <v>27.348742114208939</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O36">
         <f>ABS(NewBase!O36-NewData!O36)/NewBase!O36*100</f>
-        <v>100</v>
+        <v>1.7800311660853648E-7</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -15152,28 +15869,28 @@
       </c>
       <c r="B37">
         <f>ABS(NewBase!B37-NewData!B37)/NewBase!B37*100</f>
-        <v>100</v>
+        <v>0.30822372751452703</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H37">
         <f>ABS(NewBase!H37-NewData!H37)/NewBase!H37*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J37">
         <f>ABS(NewBase!J37-NewData!J37)/NewBase!J37*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O37">
         <f>ABS(NewBase!O37-NewData!O37)/NewBase!O37*100</f>
-        <v>100</v>
+        <v>6.8295315491277948E-14</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -15182,28 +15899,28 @@
       </c>
       <c r="B38">
         <f>ABS(NewBase!B38-NewData!B38)/NewBase!B38*100</f>
-        <v>100</v>
+        <v>0.15703103460434897</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H38">
         <f>ABS(NewBase!H38-NewData!H38)/NewBase!H38*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J38">
         <f>ABS(NewBase!J38-NewData!J38)/NewBase!J38*100</f>
-        <v>100</v>
+        <v>1.9224703517868595</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>101</v>
       </c>
       <c r="O38">
         <f>ABS(NewBase!O38-NewData!O38)/NewBase!O38*100</f>
-        <v>100</v>
+        <v>2.365235774567777E-14</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -15218,21 +15935,21 @@
       </c>
       <c r="H39">
         <f>ABS(NewBase!H39-NewData!H39)/NewBase!H39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J39">
         <f>ABS(NewBase!J39-NewData!J39)/NewBase!J39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39">
         <f>ABS(NewBase!O39-NewData!O39)/NewBase!O39*100</f>
-        <v>100</v>
+        <v>2.1628061407014637E-14</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -15247,21 +15964,21 @@
       </c>
       <c r="H40">
         <f>ABS(NewBase!H40-NewData!H40)/NewBase!H40*100</f>
-        <v>100</v>
+        <v>1.9224703517868595</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J40">
         <f>ABS(NewBase!J40-NewData!J40)/NewBase!J40*100</f>
-        <v>100</v>
+        <v>1.922470351786848</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O40">
         <f>ABS(NewBase!O40-NewData!O40)/NewBase!O40*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -15273,21 +15990,21 @@
       </c>
       <c r="H41">
         <f>ABS(NewBase!H41-NewData!H41)/NewBase!H41*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J41">
         <f>ABS(NewBase!J41-NewData!J41)/NewBase!J41*100</f>
-        <v>100</v>
+        <v>0.92203680117117792</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="O41">
         <f>ABS(NewBase!O41-NewData!O41)/NewBase!O41*100</f>
-        <v>100</v>
+        <v>1.1175806969621017E-14</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -15296,21 +16013,21 @@
       </c>
       <c r="B42">
         <f>ABS(NewBase!B42-NewData!B42)/NewBase!B42*100</f>
-        <v>100</v>
+        <v>0.31462513274588133</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42">
         <f>ABS(NewBase!H42-NewData!H42)/NewBase!H42*100</f>
-        <v>100</v>
+        <v>1.922470351786848</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J42">
         <f>ABS(NewBase!J42-NewData!J42)/NewBase!J42*100</f>
-        <v>100</v>
+        <v>27.350362031301557</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>108</v>
@@ -15331,14 +16048,14 @@
       </c>
       <c r="H43">
         <f>ABS(NewBase!H43-NewData!H43)/NewBase!H43*100</f>
-        <v>100</v>
+        <v>0.92203680117117792</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>116</v>
       </c>
       <c r="J43">
         <f>ABS(NewBase!J43-NewData!J43)/NewBase!J43*100</f>
-        <v>100</v>
+        <v>27.350362031301557</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>110</v>
@@ -15359,14 +16076,14 @@
       </c>
       <c r="H44">
         <f>ABS(NewBase!H44-NewData!H44)/NewBase!H44*100</f>
-        <v>100</v>
+        <v>27.348742114208939</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J44">
         <f>ABS(NewBase!J44-NewData!J44)/NewBase!J44*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>120</v>
@@ -15384,14 +16101,14 @@
       </c>
       <c r="H45">
         <f>ABS(NewBase!H45-NewData!H45)/NewBase!H45*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="O45">
         <f>ABS(NewBase!O45-NewData!O45)/NewBase!O45*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1">
@@ -15400,7 +16117,7 @@
       </c>
       <c r="B46">
         <f>ABS(NewBase!B46-NewData!B46)/NewBase!B46*100</f>
-        <v>100</v>
+        <v>0.15703103460434462</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>93</v>
@@ -15418,7 +16135,7 @@
       </c>
       <c r="B47">
         <f>ABS(NewBase!B47-NewData!B47)/NewBase!B47*100</f>
-        <v>100</v>
+        <v>2.6148258194357423E-2</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>125</v>
@@ -15437,7 +16154,7 @@
       </c>
       <c r="B48">
         <f>ABS(NewBase!B48-NewData!B48)/NewBase!B48*100</f>
-        <v>100</v>
+        <v>6.0582071565745341E-2</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
@@ -15462,7 +16179,7 @@
       </c>
       <c r="B49">
         <f>ABS(NewBase!B49-NewData!B49)/NewBase!B49*100</f>
-        <v>100</v>
+        <v>1.388131230150781E-2</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>130</v>
@@ -15488,7 +16205,7 @@
       </c>
       <c r="O49">
         <f>ABS(NewBase!O49-NewData!O49)/NewBase!O49*100</f>
-        <v>100</v>
+        <v>6.7054841817726103E-14</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -15497,7 +16214,7 @@
       </c>
       <c r="B50">
         <f>ABS(NewBase!B50-NewData!B50)/NewBase!B50*100</f>
-        <v>100</v>
+        <v>3.064042769748514E-2</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
@@ -15511,18 +16228,18 @@
       </c>
       <c r="L50">
         <f>ABS(NewBase!L50-NewData!L50)/NewBase!L50*100</f>
-        <v>100</v>
+        <v>0.71012253795520774</v>
       </c>
       <c r="M50">
         <f>ABS(NewBase!M50-NewData!M50)/NewBase!M50*100</f>
-        <v>100</v>
+        <v>0.95230352979623156</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O50">
         <f>ABS(NewBase!O50-NewData!O50)/NewBase!O50*100</f>
-        <v>100</v>
+        <v>2.6764022126161372E-14</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -15531,7 +16248,7 @@
       </c>
       <c r="B51">
         <f>ABS(NewBase!B51-NewData!B51)/NewBase!B51*100</f>
-        <v>100</v>
+        <v>0.97242110499970913</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>89</v>
@@ -15541,14 +16258,14 @@
       </c>
       <c r="L51">
         <f>ABS(NewBase!L51-NewData!L51)/NewBase!L51*100</f>
-        <v>100</v>
+        <v>0.71011803211394908</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O51">
         <f>ABS(NewBase!O51-NewData!O51)/NewBase!O51*100</f>
-        <v>100</v>
+        <v>1.1751027396711165E-14</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -15557,7 +16274,7 @@
       </c>
       <c r="B52">
         <f>ABS(NewBase!B52-NewData!B52)/NewBase!B52*100</f>
-        <v>100</v>
+        <v>0.4947226287527331</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>141</v>
@@ -15567,14 +16284,14 @@
       </c>
       <c r="L52">
         <f>ABS(NewBase!L52-NewData!L52)/NewBase!L52*100</f>
-        <v>100</v>
+        <v>0.71095815348167646</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O52">
         <f>ABS(NewBase!O52-NewData!O52)/NewBase!O52*100</f>
-        <v>100</v>
+        <v>4.2564432016000025E-14</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -15583,7 +16300,7 @@
       </c>
       <c r="B53">
         <f>ABS(NewBase!B53-NewData!B53)/NewBase!B53*100</f>
-        <v>100</v>
+        <v>0.80370140036158522</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>143</v>
@@ -15593,14 +16310,14 @@
       </c>
       <c r="M53">
         <f>ABS(NewBase!M53-NewData!M53)/NewBase!M53*100</f>
-        <v>100</v>
+        <v>1.0599310744471808</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>134</v>
       </c>
       <c r="O53">
         <f>ABS(NewBase!O53-NewData!O53)/NewBase!O53*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -15609,7 +16326,7 @@
       </c>
       <c r="B54">
         <f>ABS(NewBase!B54-NewData!B54)/NewBase!B54*100</f>
-        <v>100</v>
+        <v>0.79182823924626189</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>146</v>
@@ -15622,14 +16339,14 @@
       </c>
       <c r="M54">
         <f>ABS(NewBase!M54-NewData!M54)/NewBase!M54*100</f>
-        <v>100</v>
+        <v>0.92203680117114617</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>138</v>
       </c>
       <c r="O54">
         <f>ABS(NewBase!O54-NewData!O54)/NewBase!O54*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -15638,14 +16355,14 @@
       </c>
       <c r="M55">
         <f>ABS(NewBase!M55-NewData!M55)/NewBase!M55*100</f>
-        <v>100</v>
+        <v>0.92203680117113329</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O55">
         <f>ABS(NewBase!O55-NewData!O55)/NewBase!O55*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -15660,18 +16377,18 @@
       </c>
       <c r="L56">
         <f>ABS(NewBase!L56-NewData!L56)/NewBase!L56*100</f>
-        <v>100</v>
+        <v>0.83282943339279303</v>
       </c>
       <c r="M56">
         <f>ABS(NewBase!M56-NewData!M56)/NewBase!M56*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="O56">
         <f>ABS(NewBase!O56-NewData!O56)/NewBase!O56*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -15686,18 +16403,18 @@
       </c>
       <c r="L57">
         <f>ABS(NewBase!L57-NewData!L57)/NewBase!L57*100</f>
-        <v>100</v>
+        <v>0.97242110499970913</v>
       </c>
       <c r="M57">
         <f>ABS(NewBase!M57-NewData!M57)/NewBase!M57*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>156</v>
       </c>
       <c r="O57">
         <f>ABS(NewBase!O57-NewData!O57)/NewBase!O57*100</f>
-        <v>100</v>
+        <v>3.4108783592193548E-2</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>146</v>
@@ -15712,11 +16429,11 @@
       </c>
       <c r="L58">
         <f>ABS(NewBase!L58-NewData!L58)/NewBase!L58*100</f>
-        <v>100</v>
+        <v>0.4947226287527331</v>
       </c>
       <c r="M58">
         <f>ABS(NewBase!M58-NewData!M58)/NewBase!M58*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -15731,11 +16448,11 @@
       </c>
       <c r="L59">
         <f>ABS(NewBase!L59-NewData!L59)/NewBase!L59*100</f>
-        <v>100</v>
+        <v>0.80370140036158522</v>
       </c>
       <c r="M59">
         <f>ABS(NewBase!M59-NewData!M59)/NewBase!M59*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>162</v>
@@ -15750,11 +16467,11 @@
       </c>
       <c r="L60">
         <f>ABS(NewBase!L60-NewData!L60)/NewBase!L60*100</f>
-        <v>100</v>
+        <v>0.80370122092785679</v>
       </c>
       <c r="M60">
         <f>ABS(NewBase!M60-NewData!M60)/NewBase!M60*100</f>
-        <v>100</v>
+        <v>1.7800311660853648E-7</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>153</v>
@@ -15772,11 +16489,11 @@
       </c>
       <c r="L61">
         <f>ABS(NewBase!L61-NewData!L61)/NewBase!L61*100</f>
-        <v>100</v>
+        <v>0.79092208346937876</v>
       </c>
       <c r="M61">
         <f>ABS(NewBase!M61-NewData!M61)/NewBase!M61*100</f>
-        <v>100</v>
+        <v>2.852941568104328E-2</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>157</v>
@@ -15794,11 +16511,11 @@
       </c>
       <c r="L62">
         <f>ABS(NewBase!L62-NewData!L62)/NewBase!L62*100</f>
-        <v>100</v>
+        <v>0.8355908203480632</v>
       </c>
       <c r="M62">
         <f>ABS(NewBase!M62-NewData!M62)/NewBase!M62*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>159</v>
@@ -15816,7 +16533,7 @@
       </c>
       <c r="L63">
         <f>ABS(NewBase!L63-NewData!L63)/NewBase!L63*100</f>
-        <v>100</v>
+        <v>0.28618004605780434</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>163</v>
@@ -15834,7 +16551,7 @@
       </c>
       <c r="M64">
         <f>ABS(NewBase!M64-NewData!M64)/NewBase!M64*100</f>
-        <v>100</v>
+        <v>0.92203680117114806</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>176</v>
@@ -15846,11 +16563,11 @@
       </c>
       <c r="L65">
         <f>ABS(NewBase!L65-NewData!L65)/NewBase!L65*100</f>
-        <v>100</v>
+        <v>0.79182823924626189</v>
       </c>
       <c r="M65">
         <f>ABS(NewBase!M65-NewData!M65)/NewBase!M65*100</f>
-        <v>100</v>
+        <v>3.4108783592193548E-2</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>178</v>
@@ -15951,7 +16668,7 @@
       </c>
       <c r="B1">
         <f>ABS(OldFixed!B1-NewData!B1)/OldFixed!B1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -15961,7 +16678,7 @@
       </c>
       <c r="E1">
         <f>ABS(OldFixed!E1-NewData!E1)/OldFixed!E1*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -16003,7 +16720,7 @@
       </c>
       <c r="B2">
         <f>ABS(OldFixed!B2-NewData!B2)/OldFixed!B2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -16013,7 +16730,7 @@
       </c>
       <c r="E2">
         <f>ABS(OldFixed!E2-NewData!E2)/OldFixed!E2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -16022,14 +16739,14 @@
       </c>
       <c r="B3">
         <f>ABS(OldFixed!B3-NewData!B3)/OldFixed!B3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3">
         <f>ABS(OldFixed!E3-NewData!E3)/OldFixed!E3*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -16038,14 +16755,14 @@
       </c>
       <c r="B4">
         <f>ABS(OldFixed!B4-NewData!B4)/OldFixed!B4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
         <f>ABS(OldFixed!E4-NewData!E4)/OldFixed!E4*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -16054,14 +16771,14 @@
       </c>
       <c r="B5">
         <f>ABS(OldFixed!B5-NewData!B5)/OldFixed!B5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5">
         <f>ABS(OldFixed!E5-NewData!E5)/OldFixed!E5*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -16070,14 +16787,14 @@
       </c>
       <c r="B6">
         <f>ABS(OldFixed!B6-NewData!B6)/OldFixed!B6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6">
         <f>ABS(OldFixed!E6-NewData!E6)/OldFixed!E6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -16086,14 +16803,14 @@
       </c>
       <c r="B7">
         <f>ABS(OldFixed!B7-NewData!B7)/OldFixed!B7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
         <f>ABS(OldFixed!E7-NewData!E7)/OldFixed!E7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -16102,7 +16819,7 @@
       </c>
       <c r="B8">
         <f>ABS(OldFixed!B8-NewData!B8)/OldFixed!B8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -16112,7 +16829,7 @@
       </c>
       <c r="E8">
         <f>ABS(OldFixed!E8-NewData!E8)/OldFixed!E8*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -16121,7 +16838,7 @@
       </c>
       <c r="B9">
         <f>ABS(OldFixed!B9-NewData!B9)/OldFixed!B9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -16131,7 +16848,7 @@
       </c>
       <c r="E9">
         <f>ABS(OldFixed!E9-NewData!E9)/OldFixed!E9*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -16140,7 +16857,7 @@
       </c>
       <c r="B10">
         <f>ABS(OldFixed!B10-NewData!B10)/OldFixed!B10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -16150,7 +16867,7 @@
       </c>
       <c r="E10">
         <f>ABS(OldFixed!E10-NewData!E10)/OldFixed!E10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>ABS(OldFixed!G10-NewData!G10)/OldFixed!G10*100</f>
@@ -16158,15 +16875,15 @@
       </c>
       <c r="H10">
         <f>ABS(OldFixed!H10-NewData!H10)/OldFixed!H10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>ABS(OldFixed!I10-NewData!I10)/OldFixed!I10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f>ABS(OldFixed!J10-NewData!J10)/OldFixed!J10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f>ABS(OldFixed!K10-NewData!K10)/OldFixed!K10*100</f>
@@ -16190,7 +16907,7 @@
       </c>
       <c r="P10">
         <f>ABS(OldFixed!P10-NewData!P10)/OldFixed!P10*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -16199,7 +16916,7 @@
       </c>
       <c r="B11">
         <f>ABS(OldFixed!B11-NewData!B11)/OldFixed!B11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -16209,7 +16926,7 @@
       </c>
       <c r="E11">
         <f>ABS(OldFixed!E11-NewData!E11)/OldFixed!E11*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -16218,14 +16935,14 @@
       </c>
       <c r="B12">
         <f>ABS(OldFixed!B12-NewData!B12)/OldFixed!B12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12">
         <f>ABS(OldFixed!E12-NewData!E12)/OldFixed!E12*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -16234,7 +16951,7 @@
       </c>
       <c r="B13">
         <f>ABS(OldFixed!B13-NewData!B13)/OldFixed!B13*100</f>
-        <v>100</v>
+        <v>1.7800306732869313E-7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
@@ -16244,7 +16961,7 @@
       </c>
       <c r="E13">
         <f>ABS(OldFixed!E13-NewData!E13)/OldFixed!E13*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -16253,7 +16970,7 @@
       </c>
       <c r="B14">
         <f>ABS(OldFixed!B14-NewData!B14)/OldFixed!B14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
@@ -16263,7 +16980,7 @@
       </c>
       <c r="E14">
         <f>ABS(OldFixed!E14-NewData!E14)/OldFixed!E14*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -16275,7 +16992,7 @@
       </c>
       <c r="B15">
         <f>ABS(OldFixed!B15-NewData!B15)/OldFixed!B15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -16285,7 +17002,7 @@
       </c>
       <c r="E15">
         <f>ABS(OldFixed!E15-NewData!E15)/OldFixed!E15*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
@@ -16297,7 +17014,7 @@
       </c>
       <c r="B16">
         <f>ABS(OldFixed!B16-NewData!B16)/OldFixed!B16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -16307,7 +17024,7 @@
       </c>
       <c r="E16">
         <f>ABS(OldFixed!E16-NewData!E16)/OldFixed!E16*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
@@ -16319,7 +17036,7 @@
       </c>
       <c r="B17">
         <f>ABS(OldFixed!B17-NewData!B17)/OldFixed!B17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
@@ -16329,7 +17046,7 @@
       </c>
       <c r="E17">
         <f>ABS(OldFixed!E17-NewData!E17)/OldFixed!E17*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -16349,7 +17066,7 @@
       </c>
       <c r="B18">
         <f>ABS(OldFixed!B18-NewData!B18)/OldFixed!B18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -16359,7 +17076,7 @@
       </c>
       <c r="E18">
         <f>ABS(OldFixed!E18-NewData!E18)/OldFixed!E18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -16369,7 +17086,7 @@
       </c>
       <c r="H18">
         <f>ABS(OldFixed!H18-NewData!H18)/OldFixed!H18*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
@@ -16383,7 +17100,7 @@
       </c>
       <c r="L18">
         <f>ABS(OldFixed!L18-NewData!L18)/OldFixed!L18*100</f>
-        <v>100</v>
+        <v>6.7327985542997154E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -16392,7 +17109,7 @@
       </c>
       <c r="B19">
         <f>ABS(OldFixed!B19-NewData!B19)/OldFixed!B19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
@@ -16402,7 +17119,7 @@
       </c>
       <c r="E19">
         <f>ABS(OldFixed!E19-NewData!E19)/OldFixed!E19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>41</v>
@@ -16412,7 +17129,7 @@
       </c>
       <c r="H19">
         <f>ABS(OldFixed!H19-NewData!H19)/OldFixed!H19*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>58</v>
@@ -16426,7 +17143,7 @@
       </c>
       <c r="L19">
         <f>ABS(OldFixed!L19-NewData!L19)/OldFixed!L19*100</f>
-        <v>100</v>
+        <v>8.2623900881455797E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -16435,7 +17152,7 @@
       </c>
       <c r="B20">
         <f>ABS(OldFixed!B20-NewData!B20)/OldFixed!B20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
@@ -16445,7 +17162,7 @@
       </c>
       <c r="E20">
         <f>ABS(OldFixed!E20-NewData!E20)/OldFixed!E20*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>27</v>
@@ -16455,7 +17172,7 @@
       </c>
       <c r="H20">
         <f>ABS(OldFixed!H20-NewData!H20)/OldFixed!H20*100</f>
-        <v>100</v>
+        <v>1.4667924261857477E-14</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>62</v>
@@ -16469,7 +17186,7 @@
       </c>
       <c r="L20">
         <f>ABS(OldFixed!L20-NewData!L20)/OldFixed!L20*100</f>
-        <v>100</v>
+        <v>8.2623900881443113E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -16478,7 +17195,7 @@
       </c>
       <c r="B21">
         <f>ABS(OldFixed!B21-NewData!B21)/OldFixed!B21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
@@ -16488,7 +17205,7 @@
       </c>
       <c r="E21">
         <f>ABS(OldFixed!E21-NewData!E21)/OldFixed!E21*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>27</v>
@@ -16498,21 +17215,21 @@
       </c>
       <c r="H21">
         <f>ABS(OldFixed!H21-NewData!H21)/OldFixed!H21*100</f>
-        <v>100</v>
+        <v>0.21416177031271152</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J21">
         <f>ABS(OldFixed!J21-NewData!J21)/OldFixed!J21*100</f>
-        <v>100</v>
+        <v>0.13814428636157816</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="L21">
         <f>ABS(OldFixed!L21-NewData!L21)/OldFixed!L21*100</f>
-        <v>100</v>
+        <v>0.14105274297031425</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -16522,7 +17239,7 @@
       </c>
       <c r="B22">
         <f>ABS(OldFixed!B22-NewData!B22)/OldFixed!B22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -16532,7 +17249,7 @@
       </c>
       <c r="E22">
         <f>ABS(OldFixed!E22-NewData!E22)/OldFixed!E22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -16542,21 +17259,21 @@
       </c>
       <c r="H22">
         <f>ABS(OldFixed!H22-NewData!H22)/OldFixed!H22*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J22">
         <f>ABS(OldFixed!J22-NewData!J22)/OldFixed!J22*100</f>
-        <v>100</v>
+        <v>0.31837249905872472</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L22">
         <f>ABS(OldFixed!L22-NewData!L22)/OldFixed!L22*100</f>
-        <v>100</v>
+        <v>0.34557922027740229</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1">
@@ -16565,7 +17282,7 @@
       </c>
       <c r="B23">
         <f>ABS(OldFixed!B23-NewData!B23)/OldFixed!B23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>52</v>
@@ -16575,7 +17292,7 @@
       </c>
       <c r="E23">
         <f>ABS(OldFixed!E23-NewData!E23)/OldFixed!E23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>27</v>
@@ -16585,21 +17302,21 @@
       </c>
       <c r="H23">
         <f>ABS(OldFixed!H23-NewData!H23)/OldFixed!H23*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J23">
         <f>ABS(OldFixed!J23-NewData!J23)/OldFixed!J23*100</f>
-        <v>100</v>
+        <v>0.13814428636152429</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L23">
         <f>ABS(OldFixed!L23-NewData!L23)/OldFixed!L23*100</f>
-        <v>100</v>
+        <v>5.1128129906521044E-14</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -16608,14 +17325,14 @@
       </c>
       <c r="H24">
         <f>ABS(OldFixed!H24-NewData!H24)/OldFixed!H24*100</f>
-        <v>100</v>
+        <v>0.13814428636157816</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J24">
         <f>ABS(OldFixed!J24-NewData!J24)/OldFixed!J24*100</f>
-        <v>100</v>
+        <v>0.31837249905874659</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
@@ -16624,14 +17341,14 @@
       </c>
       <c r="H25">
         <f>ABS(OldFixed!H25-NewData!H25)/OldFixed!H25*100</f>
-        <v>100</v>
+        <v>0.31837249905872472</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J25">
         <f>ABS(OldFixed!J25-NewData!J25)/OldFixed!J25*100</f>
-        <v>100</v>
+        <v>8.2623900881593756E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -16646,7 +17363,7 @@
       </c>
       <c r="H26">
         <f>ABS(OldFixed!H26-NewData!H26)/OldFixed!H26*100</f>
-        <v>100</v>
+        <v>0.13814428636152429</v>
       </c>
       <c r="N26" s="36" t="s">
         <v>78</v>
@@ -16660,28 +17377,28 @@
       </c>
       <c r="B27">
         <f>ABS(OldFixed!B27-NewData!B27)/OldFixed!B27*100</f>
-        <v>100</v>
+        <v>8.2623900881622817E-2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H27">
         <f>ABS(OldFixed!H27-NewData!H27)/OldFixed!H27*100</f>
-        <v>100</v>
+        <v>0.31837249905874659</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J27">
         <f>ABS(OldFixed!J27-NewData!J27)/OldFixed!J27*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O27">
         <f>ABS(OldFixed!O27-NewData!O27)/OldFixed!O27*100</f>
-        <v>100</v>
+        <v>2.3266016118326339E-14</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -16690,28 +17407,28 @@
       </c>
       <c r="B28">
         <f>ABS(OldFixed!B28-NewData!B28)/OldFixed!B28*100</f>
-        <v>100</v>
+        <v>8.2623900881421727E-2</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H28">
         <f>ABS(OldFixed!H28-NewData!H28)/OldFixed!H28*100</f>
-        <v>100</v>
+        <v>8.2623900881593756E-2</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J28">
         <f>ABS(OldFixed!J28-NewData!J28)/OldFixed!J28*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O28">
         <f>ABS(OldFixed!O28-NewData!O28)/OldFixed!O28*100</f>
-        <v>100</v>
+        <v>7.6732735046007808E-5</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -16720,28 +17437,28 @@
       </c>
       <c r="B29">
         <f>ABS(OldFixed!B29-NewData!B29)/OldFixed!B29*100</f>
-        <v>100</v>
+        <v>0.13814428636156215</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H29">
         <f>ABS(OldFixed!H29-NewData!H29)/OldFixed!H29*100</f>
-        <v>100</v>
+        <v>5.1128129906521044E-14</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J29">
         <f>ABS(OldFixed!J29-NewData!J29)/OldFixed!J29*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="O29">
         <f>ABS(OldFixed!O29-NewData!O29)/OldFixed!O29*100</f>
-        <v>100</v>
+        <v>3.6430229452289493E-5</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -16750,28 +17467,28 @@
       </c>
       <c r="B30">
         <f>ABS(OldFixed!B30-NewData!B30)/OldFixed!B30*100</f>
-        <v>100</v>
+        <v>0.31837249905867671</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H30">
         <f>ABS(OldFixed!H30-NewData!H30)/OldFixed!H30*100</f>
-        <v>100</v>
+        <v>6.7327985542997154E-2</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J30">
         <f>ABS(OldFixed!J30-NewData!J30)/OldFixed!J30*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O30">
         <f>ABS(OldFixed!O30-NewData!O30)/OldFixed!O30*100</f>
-        <v>100</v>
+        <v>3.6430229436464512E-5</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1">
@@ -16780,7 +17497,7 @@
       </c>
       <c r="B31">
         <f>ABS(OldFixed!B31-NewData!B31)/OldFixed!B31*100</f>
-        <v>100</v>
+        <v>0.13814428636156229</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>93</v>
@@ -16790,7 +17507,7 @@
       </c>
       <c r="O31">
         <f>ABS(OldFixed!O31-NewData!O31)/OldFixed!O31*100</f>
-        <v>100</v>
+        <v>3.6430229434767329E-5</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -16799,7 +17516,7 @@
       </c>
       <c r="B32">
         <f>ABS(OldFixed!B32-NewData!B32)/OldFixed!B32*100</f>
-        <v>100</v>
+        <v>0.31837249905871751</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>96</v>
@@ -16814,7 +17531,7 @@
       </c>
       <c r="O32">
         <f>ABS(OldFixed!O32-NewData!O32)/OldFixed!O32*100</f>
-        <v>100</v>
+        <v>1.2139789407267778E-14</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -16823,28 +17540,28 @@
       </c>
       <c r="B33">
         <f>ABS(OldFixed!B33-NewData!B33)/OldFixed!B33*100</f>
-        <v>100</v>
+        <v>9.9623816914298589E-3</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H33">
         <f>ABS(OldFixed!H33-NewData!H33)/OldFixed!H33*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J33">
         <f>ABS(OldFixed!J33-NewData!J33)/OldFixed!J33*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O33">
         <f>ABS(OldFixed!O33-NewData!O33)/OldFixed!O33*100</f>
-        <v>100</v>
+        <v>2.9742484047806046E-14</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -16853,28 +17570,28 @@
       </c>
       <c r="B34">
         <f>ABS(OldFixed!B34-NewData!B34)/OldFixed!B34*100</f>
-        <v>100</v>
+        <v>9.9625597122515626E-3</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H34">
         <f>ABS(OldFixed!H34-NewData!H34)/OldFixed!H34*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="J34">
         <f>ABS(OldFixed!J34-NewData!J34)/OldFixed!J34*100</f>
-        <v>100</v>
+        <v>7.1450214944449797E-14</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O34">
         <f>ABS(OldFixed!O34-NewData!O34)/OldFixed!O34*100</f>
-        <v>100</v>
+        <v>1.3350211769066644E-14</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -16883,14 +17600,14 @@
       </c>
       <c r="B35">
         <f>ABS(OldFixed!B35-NewData!B35)/OldFixed!B35*100</f>
-        <v>100</v>
+        <v>0.13246554911180217</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H35">
         <f>ABS(OldFixed!H35-NewData!H35)/OldFixed!H35*100</f>
-        <v>100</v>
+        <v>1.4667924261857477E-14</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>102</v>
@@ -16903,7 +17620,7 @@
       </c>
       <c r="O35">
         <f>ABS(OldFixed!O35-NewData!O35)/OldFixed!O35*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -16912,28 +17629,28 @@
       </c>
       <c r="B36">
         <f>ABS(OldFixed!B36-NewData!B36)/OldFixed!B36*100</f>
-        <v>100</v>
+        <v>0.31837249905871828</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36">
         <f>ABS(OldFixed!H36-NewData!H36)/OldFixed!H36*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J36">
         <f>ABS(OldFixed!J36-NewData!J36)/OldFixed!J36*100</f>
-        <v>100</v>
+        <v>1.4735968939381915E-3</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O36">
         <f>ABS(OldFixed!O36-NewData!O36)/OldFixed!O36*100</f>
-        <v>100</v>
+        <v>1.7800311660853648E-7</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -16942,28 +17659,28 @@
       </c>
       <c r="B37">
         <f>ABS(OldFixed!B37-NewData!B37)/OldFixed!B37*100</f>
-        <v>100</v>
+        <v>4.4135700570807193E-2</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H37">
         <f>ABS(OldFixed!H37-NewData!H37)/OldFixed!H37*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J37">
         <f>ABS(OldFixed!J37-NewData!J37)/OldFixed!J37*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O37">
         <f>ABS(OldFixed!O37-NewData!O37)/OldFixed!O37*100</f>
-        <v>100</v>
+        <v>6.8295315491277948E-14</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -16972,28 +17689,28 @@
       </c>
       <c r="B38">
         <f>ABS(OldFixed!B38-NewData!B38)/OldFixed!B38*100</f>
-        <v>100</v>
+        <v>0.10623698936461864</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H38">
         <f>ABS(OldFixed!H38-NewData!H38)/OldFixed!H38*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J38">
         <f>ABS(OldFixed!J38-NewData!J38)/OldFixed!J38*100</f>
-        <v>100</v>
+        <v>7.6732735075594222E-5</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>101</v>
       </c>
       <c r="O38">
         <f>ABS(OldFixed!O38-NewData!O38)/OldFixed!O38*100</f>
-        <v>100</v>
+        <v>2.365235774567777E-14</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -17008,21 +17725,21 @@
       </c>
       <c r="H39">
         <f>ABS(OldFixed!H39-NewData!H39)/OldFixed!H39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J39">
         <f>ABS(OldFixed!J39-NewData!J39)/OldFixed!J39*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39">
         <f>ABS(OldFixed!O39-NewData!O39)/OldFixed!O39*100</f>
-        <v>100</v>
+        <v>2.1628061407014637E-14</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -17037,21 +17754,21 @@
       </c>
       <c r="H40">
         <f>ABS(OldFixed!H40-NewData!H40)/OldFixed!H40*100</f>
-        <v>100</v>
+        <v>7.6732735075594222E-5</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J40">
         <f>ABS(OldFixed!J40-NewData!J40)/OldFixed!J40*100</f>
-        <v>100</v>
+        <v>7.6732735030564392E-5</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O40">
         <f>ABS(OldFixed!O40-NewData!O40)/OldFixed!O40*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -17063,21 +17780,21 @@
       </c>
       <c r="H41">
         <f>ABS(OldFixed!H41-NewData!H41)/OldFixed!H41*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J41">
         <f>ABS(OldFixed!J41-NewData!J41)/OldFixed!J41*100</f>
-        <v>100</v>
+        <v>3.6430229471597196E-5</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="O41">
         <f>ABS(OldFixed!O41-NewData!O41)/OldFixed!O41*100</f>
-        <v>100</v>
+        <v>1.1175806969621017E-14</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -17086,21 +17803,21 @@
       </c>
       <c r="B42">
         <f>ABS(OldFixed!B42-NewData!B42)/OldFixed!B42*100</f>
-        <v>100</v>
+        <v>7.3835474333841019E-3</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42">
         <f>ABS(OldFixed!H42-NewData!H42)/OldFixed!H42*100</f>
-        <v>100</v>
+        <v>7.6732735030564392E-5</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J42">
         <f>ABS(OldFixed!J42-NewData!J42)/OldFixed!J42*100</f>
-        <v>100</v>
+        <v>3.6430229438350496E-5</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>108</v>
@@ -17121,14 +17838,14 @@
       </c>
       <c r="H43">
         <f>ABS(OldFixed!H43-NewData!H43)/OldFixed!H43*100</f>
-        <v>100</v>
+        <v>3.6430229471597196E-5</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>116</v>
       </c>
       <c r="J43">
         <f>ABS(OldFixed!J43-NewData!J43)/OldFixed!J43*100</f>
-        <v>100</v>
+        <v>3.6430229439743716E-5</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>110</v>
@@ -17149,14 +17866,14 @@
       </c>
       <c r="H44">
         <f>ABS(OldFixed!H44-NewData!H44)/OldFixed!H44*100</f>
-        <v>100</v>
+        <v>1.4735968939381915E-3</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J44">
         <f>ABS(OldFixed!J44-NewData!J44)/OldFixed!J44*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>120</v>
@@ -17174,14 +17891,14 @@
       </c>
       <c r="H45">
         <f>ABS(OldFixed!H45-NewData!H45)/OldFixed!H45*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="O45">
         <f>ABS(OldFixed!O45-NewData!O45)/OldFixed!O45*100</f>
-        <v>100</v>
+        <v>7.3231577834909061E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1">
@@ -17190,7 +17907,7 @@
       </c>
       <c r="B46">
         <f>ABS(OldFixed!B46-NewData!B46)/OldFixed!B46*100</f>
-        <v>100</v>
+        <v>5.0714518586157768E-3</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>93</v>
@@ -17208,7 +17925,7 @@
       </c>
       <c r="B47">
         <f>ABS(OldFixed!B47-NewData!B47)/OldFixed!B47*100</f>
-        <v>100</v>
+        <v>4.527357508170524E-3</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>125</v>
@@ -17227,7 +17944,7 @@
       </c>
       <c r="B48">
         <f>ABS(OldFixed!B48-NewData!B48)/OldFixed!B48*100</f>
-        <v>100</v>
+        <v>1.4252502679476136E-3</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>127</v>
@@ -17252,7 +17969,7 @@
       </c>
       <c r="B49">
         <f>ABS(OldFixed!B49-NewData!B49)/OldFixed!B49*100</f>
-        <v>100</v>
+        <v>1.524659902537334E-2</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>130</v>
@@ -17278,7 +17995,7 @@
       </c>
       <c r="O49">
         <f>ABS(OldFixed!O49-NewData!O49)/OldFixed!O49*100</f>
-        <v>100</v>
+        <v>5.3913184695928229E-3</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -17287,7 +18004,7 @@
       </c>
       <c r="B50">
         <f>ABS(OldFixed!B50-NewData!B50)/OldFixed!B50*100</f>
-        <v>100</v>
+        <v>9.9076877197020103E-4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
@@ -17301,18 +18018,18 @@
       </c>
       <c r="L50">
         <f>ABS(OldFixed!L50-NewData!L50)/OldFixed!L50*100</f>
-        <v>100</v>
+        <v>8.2623900881607232E-2</v>
       </c>
       <c r="M50">
         <f>ABS(OldFixed!M50-NewData!M50)/OldFixed!M50*100</f>
-        <v>100</v>
+        <v>3.7637583344354178E-5</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O50">
         <f>ABS(OldFixed!O50-NewData!O50)/OldFixed!O50*100</f>
-        <v>100</v>
+        <v>1.6050725435336189E-3</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -17321,7 +18038,7 @@
       </c>
       <c r="B51">
         <f>ABS(OldFixed!B51-NewData!B51)/OldFixed!B51*100</f>
-        <v>100</v>
+        <v>0.13110659166385102</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>89</v>
@@ -17331,14 +18048,14 @@
       </c>
       <c r="L51">
         <f>ABS(OldFixed!L51-NewData!L51)/OldFixed!L51*100</f>
-        <v>100</v>
+        <v>8.2623900881622817E-2</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O51">
         <f>ABS(OldFixed!O51-NewData!O51)/OldFixed!O51*100</f>
-        <v>100</v>
+        <v>1.4094454448273625E-3</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -17347,7 +18064,7 @@
       </c>
       <c r="B52">
         <f>ABS(OldFixed!B52-NewData!B52)/OldFixed!B52*100</f>
-        <v>100</v>
+        <v>0.31072253912148656</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>141</v>
@@ -17357,14 +18074,14 @@
       </c>
       <c r="L52">
         <f>ABS(OldFixed!L52-NewData!L52)/OldFixed!L52*100</f>
-        <v>100</v>
+        <v>8.2623900881421727E-2</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O52">
         <f>ABS(OldFixed!O52-NewData!O52)/OldFixed!O52*100</f>
-        <v>100</v>
+        <v>1.1582189017260922E-3</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -17373,7 +18090,7 @@
       </c>
       <c r="B53">
         <f>ABS(OldFixed!B53-NewData!B53)/OldFixed!B53*100</f>
-        <v>100</v>
+        <v>9.9625597122460583E-3</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>143</v>
@@ -17383,14 +18100,14 @@
       </c>
       <c r="M53">
         <f>ABS(OldFixed!M53-NewData!M53)/OldFixed!M53*100</f>
-        <v>100</v>
+        <v>4.193687966485896E-5</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>134</v>
       </c>
       <c r="O53">
         <f>ABS(OldFixed!O53-NewData!O53)/OldFixed!O53*100</f>
-        <v>100</v>
+        <v>1.0259665167222124E-3</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -17399,7 +18116,7 @@
       </c>
       <c r="B54">
         <f>ABS(OldFixed!B54-NewData!B54)/OldFixed!B54*100</f>
-        <v>100</v>
+        <v>3.5775682413459485E-2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>146</v>
@@ -17412,14 +18129,14 @@
       </c>
       <c r="M54">
         <f>ABS(OldFixed!M54-NewData!M54)/OldFixed!M54*100</f>
-        <v>100</v>
+        <v>3.6430229452289493E-5</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>138</v>
       </c>
       <c r="O54">
         <f>ABS(OldFixed!O54-NewData!O54)/OldFixed!O54*100</f>
-        <v>100</v>
+        <v>1.5009113853772383E-3</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -17428,14 +18145,14 @@
       </c>
       <c r="M55">
         <f>ABS(OldFixed!M55-NewData!M55)/OldFixed!M55*100</f>
-        <v>100</v>
+        <v>3.6430229436464512E-5</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O55">
         <f>ABS(OldFixed!O55-NewData!O55)/OldFixed!O55*100</f>
-        <v>100</v>
+        <v>1.0880887695060976E-3</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -17450,18 +18167,18 @@
       </c>
       <c r="L56">
         <f>ABS(OldFixed!L56-NewData!L56)/OldFixed!L56*100</f>
-        <v>100</v>
+        <v>1.0421220863546075E-2</v>
       </c>
       <c r="M56">
         <f>ABS(OldFixed!M56-NewData!M56)/OldFixed!M56*100</f>
-        <v>100</v>
+        <v>1.0593532830802607E-3</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="O56">
         <f>ABS(OldFixed!O56-NewData!O56)/OldFixed!O56*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -17476,18 +18193,18 @@
       </c>
       <c r="L57">
         <f>ABS(OldFixed!L57-NewData!L57)/OldFixed!L57*100</f>
-        <v>100</v>
+        <v>0.13110659166385102</v>
       </c>
       <c r="M57">
         <f>ABS(OldFixed!M57-NewData!M57)/OldFixed!M57*100</f>
-        <v>100</v>
+        <v>1.5009113853772383E-3</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>156</v>
       </c>
       <c r="O57">
         <f>ABS(OldFixed!O57-NewData!O57)/OldFixed!O57*100</f>
-        <v>100</v>
+        <v>2.3494768190325078E-5</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>146</v>
@@ -17502,11 +18219,11 @@
       </c>
       <c r="L58">
         <f>ABS(OldFixed!L58-NewData!L58)/OldFixed!L58*100</f>
-        <v>100</v>
+        <v>0.31072253912148656</v>
       </c>
       <c r="M58">
         <f>ABS(OldFixed!M58-NewData!M58)/OldFixed!M58*100</f>
-        <v>100</v>
+        <v>1.0880887695060976E-3</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -17521,11 +18238,11 @@
       </c>
       <c r="L59">
         <f>ABS(OldFixed!L59-NewData!L59)/OldFixed!L59*100</f>
-        <v>100</v>
+        <v>9.9625597122460583E-3</v>
       </c>
       <c r="M59">
         <f>ABS(OldFixed!M59-NewData!M59)/OldFixed!M59*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>162</v>
@@ -17540,11 +18257,11 @@
       </c>
       <c r="L60">
         <f>ABS(OldFixed!L60-NewData!L60)/OldFixed!L60*100</f>
-        <v>100</v>
+        <v>9.9623816914298589E-3</v>
       </c>
       <c r="M60">
         <f>ABS(OldFixed!M60-NewData!M60)/OldFixed!M60*100</f>
-        <v>100</v>
+        <v>1.7800311660853648E-7</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>153</v>
@@ -17562,11 +18279,11 @@
       </c>
       <c r="L61">
         <f>ABS(OldFixed!L61-NewData!L61)/OldFixed!L61*100</f>
-        <v>100</v>
+        <v>3.6753682864418089E-2</v>
       </c>
       <c r="M61">
         <f>ABS(OldFixed!M61-NewData!M61)/OldFixed!M61*100</f>
-        <v>100</v>
+        <v>1.117140173500638E-6</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>157</v>
@@ -17584,11 +18301,11 @@
       </c>
       <c r="L62">
         <f>ABS(OldFixed!L62-NewData!L62)/OldFixed!L62*100</f>
-        <v>100</v>
+        <v>4.1026685686614252E-2</v>
       </c>
       <c r="M62">
         <f>ABS(OldFixed!M62-NewData!M62)/OldFixed!M62*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>159</v>
@@ -17606,7 +18323,7 @@
       </c>
       <c r="L63">
         <f>ABS(OldFixed!L63-NewData!L63)/OldFixed!L63*100</f>
-        <v>100</v>
+        <v>6.7327985542990285E-2</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>163</v>
@@ -17624,7 +18341,7 @@
       </c>
       <c r="M64">
         <f>ABS(OldFixed!M64-NewData!M64)/OldFixed!M64*100</f>
-        <v>100</v>
+        <v>3.6430229434767329E-5</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>176</v>
@@ -17636,11 +18353,11 @@
       </c>
       <c r="L65">
         <f>ABS(OldFixed!L65-NewData!L65)/OldFixed!L65*100</f>
-        <v>100</v>
+        <v>3.5775682413459485E-2</v>
       </c>
       <c r="M65">
         <f>ABS(OldFixed!M65-NewData!M65)/OldFixed!M65*100</f>
-        <v>100</v>
+        <v>2.3494768190325078E-5</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>178</v>
